--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14609188160737</v>
+        <v>18.14609188160741</v>
       </c>
       <c r="C2">
-        <v>9.98343435546639</v>
+        <v>9.983434355466207</v>
       </c>
       <c r="D2">
-        <v>9.988922205022401</v>
+        <v>9.988922205022483</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.30078355159411</v>
+        <v>63.30078355159397</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.77912857799894</v>
+        <v>16.77912857799901</v>
       </c>
       <c r="C3">
-        <v>9.316351476544526</v>
+        <v>9.316351476544067</v>
       </c>
       <c r="D3">
-        <v>9.513406419563241</v>
+        <v>9.513406419563209</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.43400318362286</v>
+        <v>59.43400318362295</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.08318948405729</v>
+        <v>14.08318948405727</v>
       </c>
       <c r="K3">
-        <v>12.11915570086266</v>
+        <v>12.11915570086267</v>
       </c>
       <c r="L3">
-        <v>14.98027587396586</v>
+        <v>14.98027587396591</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90389176813313</v>
+        <v>15.90389176813314</v>
       </c>
       <c r="C4">
-        <v>8.892835573175081</v>
+        <v>8.892835573174541</v>
       </c>
       <c r="D4">
-        <v>9.215961187643053</v>
+        <v>9.21596118764311</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.98842870338965</v>
+        <v>56.98842870338928</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.38006033725979</v>
+        <v>13.38006033725965</v>
       </c>
       <c r="K4">
-        <v>11.64863724689734</v>
+        <v>11.6486372468973</v>
       </c>
       <c r="L4">
-        <v>14.22794760234017</v>
+        <v>14.22794760234016</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.53790834009539</v>
+        <v>15.53790834009533</v>
       </c>
       <c r="C5">
-        <v>8.716582422877968</v>
+        <v>8.716582422877829</v>
       </c>
       <c r="D5">
-        <v>9.09336889825588</v>
+        <v>9.093368898255925</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.97393558648376</v>
+        <v>55.97393558648365</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.08611304619272</v>
+        <v>13.0861130461926</v>
       </c>
       <c r="K5">
-        <v>11.45468903240406</v>
+        <v>11.45468903240403</v>
       </c>
       <c r="L5">
-        <v>13.91311923839077</v>
+        <v>13.91311923839079</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47656657379953</v>
+        <v>15.47656657379957</v>
       </c>
       <c r="C6">
-        <v>8.687089896887247</v>
+        <v>8.687089896887555</v>
       </c>
       <c r="D6">
-        <v>9.072929478681345</v>
+        <v>9.072929478681276</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.80440410248055</v>
+        <v>55.80440410248057</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.036848548458</v>
+        <v>13.03684854845806</v>
       </c>
       <c r="K6">
-        <v>11.42235390671648</v>
+        <v>11.42235390671645</v>
       </c>
       <c r="L6">
-        <v>13.86033732191874</v>
+        <v>13.86033732191877</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89899406820136</v>
+        <v>15.8989940682013</v>
       </c>
       <c r="C7">
-        <v>8.89047360920565</v>
+        <v>8.890473609205829</v>
       </c>
       <c r="D7">
-        <v>9.214313444395124</v>
+        <v>9.214313444395122</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.97481916036221</v>
+        <v>56.9748191603618</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.37612640289176</v>
+        <v>13.37612640289177</v>
       </c>
       <c r="K7">
-        <v>11.64603039754661</v>
+        <v>11.64603039754655</v>
       </c>
       <c r="L7">
-        <v>14.22373542167688</v>
+        <v>14.2237354216768</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68203458282347</v>
+        <v>17.68203458282354</v>
       </c>
       <c r="C8">
-        <v>9.756206083450161</v>
+        <v>9.756206083450152</v>
       </c>
       <c r="D8">
-        <v>9.826091060256902</v>
+        <v>9.826091060256916</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.80883923173261</v>
+        <v>14.80883923173264</v>
       </c>
       <c r="K8">
         <v>12.61347066805537</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.90843889875885</v>
+        <v>20.90843889875887</v>
       </c>
       <c r="C9">
-        <v>11.35243216668537</v>
+        <v>11.35243216668535</v>
       </c>
       <c r="D9">
-        <v>10.98392544988406</v>
+        <v>10.98392544988405</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.24622626788994</v>
+        <v>71.24622626789015</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>17.40509586635287</v>
       </c>
       <c r="K9">
-        <v>14.43834096286664</v>
+        <v>14.43834096286667</v>
       </c>
       <c r="L9">
-        <v>18.51938586177662</v>
+        <v>18.51938586177667</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.13842321654135</v>
+        <v>23.13842321654151</v>
       </c>
       <c r="C10">
-        <v>12.47859392905873</v>
+        <v>12.47859392905851</v>
       </c>
       <c r="D10">
         <v>11.81360354113847</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.74655038153693</v>
+        <v>77.74655038153686</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.20335067646645</v>
+        <v>19.20335067646648</v>
       </c>
       <c r="K10">
-        <v>15.89686886497133</v>
+        <v>15.89686886497138</v>
       </c>
       <c r="L10">
-        <v>20.42365049761739</v>
+        <v>20.42365049761749</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.12905100811206</v>
+        <v>24.12905100811199</v>
       </c>
       <c r="C11">
-        <v>12.98514538931077</v>
+        <v>12.9851453893109</v>
       </c>
       <c r="D11">
-        <v>12.18823063459175</v>
+        <v>12.18823063459161</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.65000870443862</v>
+        <v>80.65000870443828</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.00339583070337</v>
+        <v>20.00339583070333</v>
       </c>
       <c r="K11">
-        <v>16.56262187005696</v>
+        <v>16.56262187005698</v>
       </c>
       <c r="L11">
-        <v>21.26795968202662</v>
+        <v>21.26795968202661</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.50143293827419</v>
+        <v>24.50143293827427</v>
       </c>
       <c r="C12">
-        <v>13.17659152744054</v>
+        <v>13.17659152744049</v>
       </c>
       <c r="D12">
-        <v>12.32989547570587</v>
+        <v>12.32989547570608</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.74325243960109</v>
+        <v>81.74325243960202</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.3043463200243</v>
+        <v>20.30434632002442</v>
       </c>
       <c r="K12">
-        <v>16.81258378330087</v>
+        <v>16.8125837833009</v>
       </c>
       <c r="L12">
-        <v>21.58507348322594</v>
+        <v>21.585073483226</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.42134385894099</v>
+        <v>24.42134385894105</v>
       </c>
       <c r="C13">
-        <v>13.13536859685721</v>
+        <v>13.13536859685716</v>
       </c>
       <c r="D13">
-        <v>12.29939036922514</v>
+        <v>12.29939036922525</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.50805238035038</v>
+        <v>81.50805238035107</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.23961021494699</v>
+        <v>20.23961021494697</v>
       </c>
       <c r="K13">
         <v>16.75883790916124</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.15973782292643</v>
+        <v>24.15973782292653</v>
       </c>
       <c r="C14">
-        <v>13.0009003489574</v>
+        <v>13.00090034895727</v>
       </c>
       <c r="D14">
-        <v>12.19988808730779</v>
+        <v>12.19988808730768</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.74006561034399</v>
+        <v>80.74006561034375</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.02819177346424</v>
+        <v>20.02819177346425</v>
       </c>
       <c r="K14">
-        <v>16.58322669924696</v>
+        <v>16.58322669924697</v>
       </c>
       <c r="L14">
-        <v>21.29409757955817</v>
+        <v>21.29409757955824</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.99916102838511</v>
+        <v>23.99916102838514</v>
       </c>
       <c r="C15">
-        <v>12.91850097004142</v>
+        <v>12.91850097004176</v>
       </c>
       <c r="D15">
-        <v>12.13892126920319</v>
+        <v>12.13892126920323</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.26889016743006</v>
+        <v>80.26889016743023</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.8984492254572</v>
+        <v>19.8984492254573</v>
       </c>
       <c r="K15">
-        <v>16.47539418653098</v>
+        <v>16.47539418653099</v>
       </c>
       <c r="L15">
-        <v>21.15731319272721</v>
+        <v>21.15731319272723</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.07325930733287</v>
+        <v>23.07325930733277</v>
       </c>
       <c r="C16">
-        <v>12.44541061728087</v>
+        <v>12.44541061728141</v>
       </c>
       <c r="D16">
-        <v>11.78908065715637</v>
+        <v>11.78908065715641</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.55584156420726</v>
+        <v>77.55584156420734</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.15075081280831</v>
+        <v>19.15075081280838</v>
       </c>
       <c r="K16">
         <v>15.85303590345931</v>
       </c>
       <c r="L16">
-        <v>20.36807587288283</v>
+        <v>20.36807587288281</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49959467535989</v>
+        <v>22.49959467535973</v>
       </c>
       <c r="C17">
-        <v>12.15400788536458</v>
+        <v>12.15400788536432</v>
       </c>
       <c r="D17">
-        <v>11.57387623075816</v>
+        <v>11.5738762307581</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.87868133212771</v>
+        <v>75.87868133212716</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.68783296518741</v>
+        <v>18.6878329651873</v>
       </c>
       <c r="K17">
         <v>15.46695166791175</v>
       </c>
       <c r="L17">
-        <v>19.87864255612257</v>
+        <v>19.87864255612251</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.16735049196917</v>
+        <v>22.16735049196926</v>
       </c>
       <c r="C18">
-        <v>11.98582816973901</v>
+        <v>11.98582816973912</v>
       </c>
       <c r="D18">
-        <v>11.44981774971661</v>
+        <v>11.44981774971663</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.41984140213145</v>
+        <v>18.41984140213154</v>
       </c>
       <c r="K18">
-        <v>15.24318117756444</v>
+        <v>15.24318117756446</v>
       </c>
       <c r="L18">
-        <v>19.59502935889371</v>
+        <v>19.59502935889375</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.05444684180998</v>
+        <v>22.05444684180985</v>
       </c>
       <c r="C19">
-        <v>11.92877471620164</v>
+        <v>11.92877471620169</v>
       </c>
       <c r="D19">
-        <v>11.40776050751499</v>
+        <v>11.40776050751493</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.57958703350999</v>
+        <v>74.57958703350972</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.32879042874332</v>
+        <v>18.32879042874329</v>
       </c>
       <c r="K19">
-        <v>15.16711198896096</v>
+        <v>15.16711198896092</v>
       </c>
       <c r="L19">
-        <v>19.49862627574077</v>
+        <v>19.49862627574075</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.560894499291</v>
+        <v>22.56089449929112</v>
       </c>
       <c r="C20">
-        <v>12.18508447136489</v>
+        <v>12.18508447136476</v>
       </c>
       <c r="D20">
-        <v>11.59681264112023</v>
+        <v>11.59681264112029</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.05774164144226</v>
+        <v>76.05774164144268</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.73728691962298</v>
+        <v>18.73728691962309</v>
       </c>
       <c r="K20">
-        <v>15.50822468018477</v>
+        <v>15.50822468018481</v>
       </c>
       <c r="L20">
-        <v>19.93095767339467</v>
+        <v>19.9309576733948</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.23664639106367</v>
+        <v>24.23664639106361</v>
       </c>
       <c r="C21">
-        <v>13.04040301265994</v>
+        <v>13.04040301265978</v>
       </c>
       <c r="D21">
-        <v>12.22911778995686</v>
+        <v>12.22911778995681</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.96579741751523</v>
+        <v>80.96579741751522</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.09033987094119</v>
+        <v>20.09033987094112</v>
       </c>
       <c r="K21">
-        <v>16.63486245835781</v>
+        <v>16.63486245835778</v>
       </c>
       <c r="L21">
-        <v>21.35960109086755</v>
+        <v>21.35960109086753</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.31624719454954</v>
+        <v>25.31624719454971</v>
       </c>
       <c r="C22">
-        <v>13.5975056101762</v>
+        <v>13.597505610176</v>
       </c>
       <c r="D22">
-        <v>12.64134831164152</v>
+        <v>12.64134831164158</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.13814739384712</v>
+        <v>84.13814739384755</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.9632804381596</v>
+        <v>20.96328043815966</v>
       </c>
       <c r="K22">
-        <v>17.35894012596847</v>
+        <v>17.35894012596846</v>
       </c>
       <c r="L22">
-        <v>22.2784362253629</v>
+        <v>22.27843622536293</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.74121263046069</v>
+        <v>24.74121263046055</v>
       </c>
       <c r="C23">
-        <v>13.3001681070339</v>
+        <v>13.30016810703396</v>
       </c>
       <c r="D23">
-        <v>12.42134320648755</v>
+        <v>12.42134320648756</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.44764598579167</v>
+        <v>82.4476459857915</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.49819363905963</v>
+        <v>20.49819363905955</v>
       </c>
       <c r="K23">
-        <v>16.97344775903204</v>
+        <v>16.9734477590321</v>
       </c>
       <c r="L23">
         <v>21.78918737841038</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.53318848778946</v>
+        <v>22.53318848778953</v>
       </c>
       <c r="C24">
-        <v>12.17103679908377</v>
+        <v>12.1710367990839</v>
       </c>
       <c r="D24">
-        <v>11.5864441465987</v>
+        <v>11.58644414659865</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97680598664292</v>
+        <v>75.97680598664286</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.71493460323183</v>
+        <v>18.71493460323186</v>
       </c>
       <c r="K24">
-        <v>15.48957080521104</v>
+        <v>15.48957080521111</v>
       </c>
       <c r="L24">
-        <v>19.90731299909672</v>
+        <v>19.90731299909677</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.06225114955589</v>
+        <v>20.06225114955597</v>
       </c>
       <c r="C25">
-        <v>10.93006211399652</v>
+        <v>10.93006211399662</v>
       </c>
       <c r="D25">
-        <v>10.6748377983744</v>
+        <v>10.67483779837428</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.79712734878161</v>
+        <v>68.79712734878136</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.72361040760491</v>
+        <v>16.72361040760498</v>
       </c>
       <c r="K25">
-        <v>13.95220505832393</v>
+        <v>13.95220505832394</v>
       </c>
       <c r="L25">
         <v>17.79550479446049</v>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14609188160741</v>
+        <v>18.14609188160737</v>
       </c>
       <c r="C2">
-        <v>9.983434355466207</v>
+        <v>9.98343435546639</v>
       </c>
       <c r="D2">
-        <v>9.988922205022483</v>
+        <v>9.988922205022401</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.30078355159397</v>
+        <v>63.30078355159411</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.77912857799901</v>
+        <v>16.77912857799894</v>
       </c>
       <c r="C3">
-        <v>9.316351476544067</v>
+        <v>9.316351476544526</v>
       </c>
       <c r="D3">
-        <v>9.513406419563209</v>
+        <v>9.513406419563241</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.43400318362295</v>
+        <v>59.43400318362286</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.08318948405727</v>
+        <v>14.08318948405729</v>
       </c>
       <c r="K3">
-        <v>12.11915570086267</v>
+        <v>12.11915570086266</v>
       </c>
       <c r="L3">
-        <v>14.98027587396591</v>
+        <v>14.98027587396586</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90389176813314</v>
+        <v>15.90389176813313</v>
       </c>
       <c r="C4">
-        <v>8.892835573174541</v>
+        <v>8.892835573175081</v>
       </c>
       <c r="D4">
-        <v>9.21596118764311</v>
+        <v>9.215961187643053</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.98842870338928</v>
+        <v>56.98842870338965</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.38006033725965</v>
+        <v>13.38006033725979</v>
       </c>
       <c r="K4">
-        <v>11.6486372468973</v>
+        <v>11.64863724689734</v>
       </c>
       <c r="L4">
-        <v>14.22794760234016</v>
+        <v>14.22794760234017</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.53790834009533</v>
+        <v>15.53790834009539</v>
       </c>
       <c r="C5">
-        <v>8.716582422877829</v>
+        <v>8.716582422877968</v>
       </c>
       <c r="D5">
-        <v>9.093368898255925</v>
+        <v>9.09336889825588</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.97393558648365</v>
+        <v>55.97393558648376</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.0861130461926</v>
+        <v>13.08611304619272</v>
       </c>
       <c r="K5">
-        <v>11.45468903240403</v>
+        <v>11.45468903240406</v>
       </c>
       <c r="L5">
-        <v>13.91311923839079</v>
+        <v>13.91311923839077</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47656657379957</v>
+        <v>15.47656657379953</v>
       </c>
       <c r="C6">
-        <v>8.687089896887555</v>
+        <v>8.687089896887247</v>
       </c>
       <c r="D6">
-        <v>9.072929478681276</v>
+        <v>9.072929478681345</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.80440410248057</v>
+        <v>55.80440410248055</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.03684854845806</v>
+        <v>13.036848548458</v>
       </c>
       <c r="K6">
-        <v>11.42235390671645</v>
+        <v>11.42235390671648</v>
       </c>
       <c r="L6">
-        <v>13.86033732191877</v>
+        <v>13.86033732191874</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.8989940682013</v>
+        <v>15.89899406820136</v>
       </c>
       <c r="C7">
-        <v>8.890473609205829</v>
+        <v>8.89047360920565</v>
       </c>
       <c r="D7">
-        <v>9.214313444395122</v>
+        <v>9.214313444395124</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.9748191603618</v>
+        <v>56.97481916036221</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.37612640289177</v>
+        <v>13.37612640289176</v>
       </c>
       <c r="K7">
-        <v>11.64603039754655</v>
+        <v>11.64603039754661</v>
       </c>
       <c r="L7">
-        <v>14.2237354216768</v>
+        <v>14.22373542167688</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,13 +640,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68203458282354</v>
+        <v>17.68203458282347</v>
       </c>
       <c r="C8">
-        <v>9.756206083450152</v>
+        <v>9.756206083450161</v>
       </c>
       <c r="D8">
-        <v>9.826091060256916</v>
+        <v>9.826091060256902</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.80883923173264</v>
+        <v>14.80883923173261</v>
       </c>
       <c r="K8">
         <v>12.61347066805537</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.90843889875887</v>
+        <v>20.90843889875885</v>
       </c>
       <c r="C9">
-        <v>11.35243216668535</v>
+        <v>11.35243216668537</v>
       </c>
       <c r="D9">
-        <v>10.98392544988405</v>
+        <v>10.98392544988406</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.24622626789015</v>
+        <v>71.24622626788994</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>17.40509586635287</v>
       </c>
       <c r="K9">
-        <v>14.43834096286667</v>
+        <v>14.43834096286664</v>
       </c>
       <c r="L9">
-        <v>18.51938586177667</v>
+        <v>18.51938586177662</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,10 +716,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.13842321654151</v>
+        <v>23.13842321654135</v>
       </c>
       <c r="C10">
-        <v>12.47859392905851</v>
+        <v>12.47859392905873</v>
       </c>
       <c r="D10">
         <v>11.81360354113847</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.74655038153686</v>
+        <v>77.74655038153693</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.20335067646648</v>
+        <v>19.20335067646645</v>
       </c>
       <c r="K10">
-        <v>15.89686886497138</v>
+        <v>15.89686886497133</v>
       </c>
       <c r="L10">
-        <v>20.42365049761749</v>
+        <v>20.42365049761739</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.12905100811199</v>
+        <v>24.12905100811206</v>
       </c>
       <c r="C11">
-        <v>12.9851453893109</v>
+        <v>12.98514538931077</v>
       </c>
       <c r="D11">
-        <v>12.18823063459161</v>
+        <v>12.18823063459175</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.65000870443828</v>
+        <v>80.65000870443862</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.00339583070333</v>
+        <v>20.00339583070337</v>
       </c>
       <c r="K11">
-        <v>16.56262187005698</v>
+        <v>16.56262187005696</v>
       </c>
       <c r="L11">
-        <v>21.26795968202661</v>
+        <v>21.26795968202662</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.50143293827427</v>
+        <v>24.50143293827419</v>
       </c>
       <c r="C12">
-        <v>13.17659152744049</v>
+        <v>13.17659152744054</v>
       </c>
       <c r="D12">
-        <v>12.32989547570608</v>
+        <v>12.32989547570587</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.74325243960202</v>
+        <v>81.74325243960109</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.30434632002442</v>
+        <v>20.3043463200243</v>
       </c>
       <c r="K12">
-        <v>16.8125837833009</v>
+        <v>16.81258378330087</v>
       </c>
       <c r="L12">
-        <v>21.585073483226</v>
+        <v>21.58507348322594</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.42134385894105</v>
+        <v>24.42134385894099</v>
       </c>
       <c r="C13">
-        <v>13.13536859685716</v>
+        <v>13.13536859685721</v>
       </c>
       <c r="D13">
-        <v>12.29939036922525</v>
+        <v>12.29939036922514</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.50805238035107</v>
+        <v>81.50805238035038</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.23961021494697</v>
+        <v>20.23961021494699</v>
       </c>
       <c r="K13">
         <v>16.75883790916124</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.15973782292653</v>
+        <v>24.15973782292643</v>
       </c>
       <c r="C14">
-        <v>13.00090034895727</v>
+        <v>13.0009003489574</v>
       </c>
       <c r="D14">
-        <v>12.19988808730768</v>
+        <v>12.19988808730779</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.74006561034375</v>
+        <v>80.74006561034399</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.02819177346425</v>
+        <v>20.02819177346424</v>
       </c>
       <c r="K14">
-        <v>16.58322669924697</v>
+        <v>16.58322669924696</v>
       </c>
       <c r="L14">
-        <v>21.29409757955824</v>
+        <v>21.29409757955817</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.99916102838514</v>
+        <v>23.99916102838511</v>
       </c>
       <c r="C15">
-        <v>12.91850097004176</v>
+        <v>12.91850097004142</v>
       </c>
       <c r="D15">
-        <v>12.13892126920323</v>
+        <v>12.13892126920319</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.26889016743023</v>
+        <v>80.26889016743006</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.8984492254573</v>
+        <v>19.8984492254572</v>
       </c>
       <c r="K15">
-        <v>16.47539418653099</v>
+        <v>16.47539418653098</v>
       </c>
       <c r="L15">
-        <v>21.15731319272723</v>
+        <v>21.15731319272721</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.07325930733277</v>
+        <v>23.07325930733287</v>
       </c>
       <c r="C16">
-        <v>12.44541061728141</v>
+        <v>12.44541061728087</v>
       </c>
       <c r="D16">
-        <v>11.78908065715641</v>
+        <v>11.78908065715637</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.55584156420734</v>
+        <v>77.55584156420726</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.15075081280838</v>
+        <v>19.15075081280831</v>
       </c>
       <c r="K16">
         <v>15.85303590345931</v>
       </c>
       <c r="L16">
-        <v>20.36807587288281</v>
+        <v>20.36807587288283</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49959467535973</v>
+        <v>22.49959467535989</v>
       </c>
       <c r="C17">
-        <v>12.15400788536432</v>
+        <v>12.15400788536458</v>
       </c>
       <c r="D17">
-        <v>11.5738762307581</v>
+        <v>11.57387623075816</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.87868133212716</v>
+        <v>75.87868133212771</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.6878329651873</v>
+        <v>18.68783296518741</v>
       </c>
       <c r="K17">
         <v>15.46695166791175</v>
       </c>
       <c r="L17">
-        <v>19.87864255612251</v>
+        <v>19.87864255612257</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,13 +1020,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.16735049196926</v>
+        <v>22.16735049196917</v>
       </c>
       <c r="C18">
-        <v>11.98582816973912</v>
+        <v>11.98582816973901</v>
       </c>
       <c r="D18">
-        <v>11.44981774971663</v>
+        <v>11.44981774971661</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.41984140213154</v>
+        <v>18.41984140213145</v>
       </c>
       <c r="K18">
-        <v>15.24318117756446</v>
+        <v>15.24318117756444</v>
       </c>
       <c r="L18">
-        <v>19.59502935889375</v>
+        <v>19.59502935889371</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.05444684180985</v>
+        <v>22.05444684180998</v>
       </c>
       <c r="C19">
-        <v>11.92877471620169</v>
+        <v>11.92877471620164</v>
       </c>
       <c r="D19">
-        <v>11.40776050751493</v>
+        <v>11.40776050751499</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.57958703350972</v>
+        <v>74.57958703350999</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.32879042874329</v>
+        <v>18.32879042874332</v>
       </c>
       <c r="K19">
-        <v>15.16711198896092</v>
+        <v>15.16711198896096</v>
       </c>
       <c r="L19">
-        <v>19.49862627574075</v>
+        <v>19.49862627574077</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.56089449929112</v>
+        <v>22.560894499291</v>
       </c>
       <c r="C20">
-        <v>12.18508447136476</v>
+        <v>12.18508447136489</v>
       </c>
       <c r="D20">
-        <v>11.59681264112029</v>
+        <v>11.59681264112023</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.05774164144268</v>
+        <v>76.05774164144226</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.73728691962309</v>
+        <v>18.73728691962298</v>
       </c>
       <c r="K20">
-        <v>15.50822468018481</v>
+        <v>15.50822468018477</v>
       </c>
       <c r="L20">
-        <v>19.9309576733948</v>
+        <v>19.93095767339467</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.23664639106361</v>
+        <v>24.23664639106367</v>
       </c>
       <c r="C21">
-        <v>13.04040301265978</v>
+        <v>13.04040301265994</v>
       </c>
       <c r="D21">
-        <v>12.22911778995681</v>
+        <v>12.22911778995686</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.96579741751522</v>
+        <v>80.96579741751523</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.09033987094112</v>
+        <v>20.09033987094119</v>
       </c>
       <c r="K21">
-        <v>16.63486245835778</v>
+        <v>16.63486245835781</v>
       </c>
       <c r="L21">
-        <v>21.35960109086753</v>
+        <v>21.35960109086755</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.31624719454971</v>
+        <v>25.31624719454954</v>
       </c>
       <c r="C22">
-        <v>13.597505610176</v>
+        <v>13.5975056101762</v>
       </c>
       <c r="D22">
-        <v>12.64134831164158</v>
+        <v>12.64134831164152</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.13814739384755</v>
+        <v>84.13814739384712</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.96328043815966</v>
+        <v>20.9632804381596</v>
       </c>
       <c r="K22">
-        <v>17.35894012596846</v>
+        <v>17.35894012596847</v>
       </c>
       <c r="L22">
-        <v>22.27843622536293</v>
+        <v>22.2784362253629</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.74121263046055</v>
+        <v>24.74121263046069</v>
       </c>
       <c r="C23">
-        <v>13.30016810703396</v>
+        <v>13.3001681070339</v>
       </c>
       <c r="D23">
-        <v>12.42134320648756</v>
+        <v>12.42134320648755</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.4476459857915</v>
+        <v>82.44764598579167</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.49819363905955</v>
+        <v>20.49819363905963</v>
       </c>
       <c r="K23">
-        <v>16.9734477590321</v>
+        <v>16.97344775903204</v>
       </c>
       <c r="L23">
         <v>21.78918737841038</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.53318848778953</v>
+        <v>22.53318848778946</v>
       </c>
       <c r="C24">
-        <v>12.1710367990839</v>
+        <v>12.17103679908377</v>
       </c>
       <c r="D24">
-        <v>11.58644414659865</v>
+        <v>11.5864441465987</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97680598664286</v>
+        <v>75.97680598664292</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.71493460323186</v>
+        <v>18.71493460323183</v>
       </c>
       <c r="K24">
-        <v>15.48957080521111</v>
+        <v>15.48957080521104</v>
       </c>
       <c r="L24">
-        <v>19.90731299909677</v>
+        <v>19.90731299909672</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.06225114955597</v>
+        <v>20.06225114955589</v>
       </c>
       <c r="C25">
-        <v>10.93006211399662</v>
+        <v>10.93006211399652</v>
       </c>
       <c r="D25">
-        <v>10.67483779837428</v>
+        <v>10.6748377983744</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.79712734878136</v>
+        <v>68.79712734878161</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.72361040760498</v>
+        <v>16.72361040760491</v>
       </c>
       <c r="K25">
-        <v>13.95220505832394</v>
+        <v>13.95220505832393</v>
       </c>
       <c r="L25">
         <v>17.79550479446049</v>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14609188160737</v>
+        <v>18.02139921963365</v>
       </c>
       <c r="C2">
-        <v>9.98343435546639</v>
+        <v>9.760621778929943</v>
       </c>
       <c r="D2">
-        <v>9.988922205022401</v>
+        <v>10.06949043773908</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.30078355159411</v>
+        <v>63.39643226923248</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.071399951409095</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>15.18192827257962</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.8706885097961</v>
+        <v>15.02228087740207</v>
       </c>
       <c r="L2">
-        <v>16.15371809450906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>12.836502333904</v>
+      </c>
+      <c r="M2">
+        <v>16.09682869806102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.77912857799894</v>
+        <v>16.66226121808612</v>
       </c>
       <c r="C3">
-        <v>9.316351476544526</v>
+        <v>9.093952333710414</v>
       </c>
       <c r="D3">
-        <v>9.513406419563241</v>
+        <v>9.601173812991339</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.43400318362286</v>
+        <v>59.56528787255168</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.08520313885942</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>14.08318948405729</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.11915570086266</v>
+        <v>13.92696316635091</v>
       </c>
       <c r="L3">
-        <v>14.98027587396586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>12.08400178089835</v>
+      </c>
+      <c r="M3">
+        <v>14.92633438878006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.90389176813313</v>
+        <v>15.79219103811604</v>
       </c>
       <c r="C4">
-        <v>8.892835573175081</v>
+        <v>8.67038595810634</v>
       </c>
       <c r="D4">
-        <v>9.215961187643053</v>
+        <v>9.308466523894305</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.98842870338965</v>
+        <v>57.14362206189514</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.093793563985517</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.38006033725979</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>11.64863724689734</v>
+        <v>13.22585376594706</v>
       </c>
       <c r="L4">
-        <v>14.22794760234017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>11.61265800210553</v>
+      </c>
+      <c r="M4">
+        <v>14.17580102764468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.53790834009539</v>
+        <v>15.42841533222983</v>
       </c>
       <c r="C5">
-        <v>8.716582422877968</v>
+        <v>8.494031897865305</v>
       </c>
       <c r="D5">
-        <v>9.09336889825588</v>
+        <v>9.187885777218906</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.97393558648376</v>
+        <v>56.13941225717073</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.097328542928264</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.08611304619272</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>11.45468903240406</v>
+        <v>12.93270922391667</v>
       </c>
       <c r="L5">
-        <v>13.91311923839077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>11.41831543983305</v>
+      </c>
+      <c r="M5">
+        <v>13.86170235789758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.47656657379953</v>
+        <v>15.36744668946253</v>
       </c>
       <c r="C6">
-        <v>8.687089896887247</v>
+        <v>8.464517624025332</v>
       </c>
       <c r="D6">
-        <v>9.072929478681345</v>
+        <v>9.167785262174581</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.80440410248055</v>
+        <v>55.9716218139485</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.097917741431871</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.036848548458</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>11.42235390671648</v>
+        <v>12.88357677265718</v>
       </c>
       <c r="L6">
-        <v>13.86033732191874</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>11.38591132903872</v>
+      </c>
+      <c r="M6">
+        <v>13.80904155052805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.89899406820136</v>
+        <v>15.78732268232442</v>
       </c>
       <c r="C7">
-        <v>8.89047360920565</v>
+        <v>8.668022964625617</v>
       </c>
       <c r="D7">
-        <v>9.214313444395124</v>
+        <v>9.306845581313967</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.97481916036221</v>
+        <v>57.13014897592591</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.093841092367458</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.37612640289176</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>11.64603039754661</v>
+        <v>13.22193074082915</v>
       </c>
       <c r="L7">
-        <v>14.22373542167688</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>11.61004606934603</v>
+      </c>
+      <c r="M7">
+        <v>14.17159869265443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.68203458282347</v>
+        <v>17.55997142677227</v>
       </c>
       <c r="C8">
-        <v>9.756206083450161</v>
+        <v>9.533597369377771</v>
       </c>
       <c r="D8">
-        <v>9.826091060256902</v>
+        <v>9.909076464459647</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>61.9822821562603</v>
+        <v>62.08981575789391</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.076138777349143</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14.80883923173261</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>12.61347066805537</v>
+        <v>14.65038856293087</v>
       </c>
       <c r="L8">
-        <v>15.75556668808137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>12.57899890749098</v>
+      </c>
+      <c r="M8">
+        <v>15.69969828844586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.90843889875885</v>
+        <v>20.76840842736678</v>
       </c>
       <c r="C9">
-        <v>11.35243216668537</v>
+        <v>11.12719175867683</v>
       </c>
       <c r="D9">
-        <v>10.98392544988406</v>
+        <v>11.05062335561242</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.24622626788994</v>
+        <v>71.27472350256267</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.0420629321686</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>17.40509586635287</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>14.43834096286664</v>
+        <v>17.23759551204935</v>
       </c>
       <c r="L9">
-        <v>18.51938586177662</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.404980156763</v>
+      </c>
+      <c r="M9">
+        <v>18.45595279191731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.13842321654135</v>
+        <v>22.98603853722168</v>
       </c>
       <c r="C10">
-        <v>12.47859392905873</v>
+        <v>12.25001557926544</v>
       </c>
       <c r="D10">
-        <v>11.81360354113847</v>
+        <v>11.86963514126311</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.74655038153693</v>
+        <v>77.72391661886738</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.016965875150565</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>19.20335067646645</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.89686886497133</v>
+        <v>19.02858023510223</v>
       </c>
       <c r="L10">
-        <v>20.42365049761739</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15.88309528012302</v>
+      </c>
+      <c r="M10">
+        <v>20.3542680416534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.12905100811206</v>
+        <v>23.97108133721894</v>
       </c>
       <c r="C11">
-        <v>12.98514538931077</v>
+        <v>12.75470926391692</v>
       </c>
       <c r="D11">
-        <v>12.18823063459175</v>
+        <v>12.23963251655649</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.65000870443862</v>
+        <v>80.60513061979114</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>2.005410845671102</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>20.00339583070337</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>16.56262187005696</v>
+        <v>19.82510668734322</v>
       </c>
       <c r="L11">
-        <v>21.26795968202662</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16.54726816632538</v>
+      </c>
+      <c r="M11">
+        <v>21.19570762507822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.50143293827419</v>
+        <v>24.34133862747773</v>
       </c>
       <c r="C12">
-        <v>13.17659152744054</v>
+        <v>12.94539726916345</v>
       </c>
       <c r="D12">
-        <v>12.32989547570587</v>
+        <v>12.37956959829533</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.74325243960109</v>
+        <v>81.69004962600918</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2.001002576805716</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>20.3043463200243</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16.81258378330087</v>
+        <v>20.12468482538553</v>
       </c>
       <c r="L12">
-        <v>21.58507348322594</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>16.79660397974604</v>
+      </c>
+      <c r="M12">
+        <v>21.5117022892168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.42134385894099</v>
+        <v>24.26170782732063</v>
       </c>
       <c r="C13">
-        <v>13.13536859685721</v>
+        <v>12.90434016961446</v>
       </c>
       <c r="D13">
-        <v>12.29939036922514</v>
+        <v>12.34943558714956</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.50805238035038</v>
+        <v>81.45663889453365</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2.001953657535079</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>20.23961021494699</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>16.75883790916124</v>
+        <v>20.06024624010045</v>
       </c>
       <c r="L13">
-        <v>21.51688348583353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>16.74299430048177</v>
+      </c>
+      <c r="M13">
+        <v>21.44375493483343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.15973782292643</v>
+        <v>24.00159364669657</v>
       </c>
       <c r="C14">
-        <v>13.0009003489574</v>
+        <v>12.77040299003756</v>
       </c>
       <c r="D14">
-        <v>12.19988808730779</v>
+        <v>12.25114735940929</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.74006561034399</v>
+        <v>80.69450096586812</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2.005048910602139</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>20.02819177346424</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>16.58322669924696</v>
+        <v>19.84979059102668</v>
       </c>
       <c r="L14">
-        <v>21.29409757955817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>16.56782208415879</v>
+      </c>
+      <c r="M14">
+        <v>21.22175416256989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.99916102838511</v>
+        <v>23.84192890213658</v>
       </c>
       <c r="C15">
-        <v>12.91850097004142</v>
+        <v>12.68832156954557</v>
       </c>
       <c r="D15">
-        <v>12.13892126920319</v>
+        <v>12.19092727248174</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.26889016743006</v>
+        <v>80.2269194265174</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2.006940172587536</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>19.8984492254572</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>16.47539418653098</v>
+        <v>19.72063225114207</v>
       </c>
       <c r="L15">
-        <v>21.15731319272721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>16.46025463896324</v>
+      </c>
+      <c r="M15">
+        <v>21.08544615083952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.07325930733287</v>
+        <v>22.92123912624319</v>
       </c>
       <c r="C16">
-        <v>12.44541061728087</v>
+        <v>12.21694641218645</v>
       </c>
       <c r="D16">
-        <v>11.78908065715637</v>
+        <v>11.84541876888342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.55584156420726</v>
+        <v>77.53467807650351</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.017717205937114</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>19.15075081280831</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>15.85303590345931</v>
+        <v>18.97620532850876</v>
       </c>
       <c r="L16">
-        <v>20.36807587288283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15.83936207871127</v>
+      </c>
+      <c r="M16">
+        <v>20.29887695458163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.49959467535989</v>
+        <v>22.35077115265573</v>
       </c>
       <c r="C17">
-        <v>12.15400788536458</v>
+        <v>11.92650566807531</v>
       </c>
       <c r="D17">
-        <v>11.57387623075816</v>
+        <v>11.63292470984299</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.87868133212771</v>
+        <v>75.87051105004497</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.024284817249574</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>18.68783296518741</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>15.46695166791175</v>
+        <v>18.51523443102565</v>
       </c>
       <c r="L17">
-        <v>19.87864255612257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15.45413476620327</v>
+      </c>
+      <c r="M17">
+        <v>19.8110329954323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.16735049196917</v>
+        <v>22.02036991005083</v>
       </c>
       <c r="C18">
-        <v>11.98582816973901</v>
+        <v>11.75884781794214</v>
       </c>
       <c r="D18">
-        <v>11.44981774971661</v>
+        <v>11.51044657074824</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.90887146667048</v>
+        <v>74.90827328953473</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.02805020974515</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>18.41984140213145</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>15.24318117756444</v>
+        <v>18.24834351722372</v>
       </c>
       <c r="L18">
-        <v>19.59502935889371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15.23084350301028</v>
+      </c>
+      <c r="M18">
+        <v>19.52831926058873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.05444684180998</v>
+        <v>21.90809139370413</v>
       </c>
       <c r="C19">
-        <v>11.92877471620164</v>
+        <v>11.70196579294219</v>
       </c>
       <c r="D19">
-        <v>11.40776050751499</v>
+        <v>11.4689282585661</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.57958703350999</v>
+        <v>74.58157092820805</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.029323375037133</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>18.32879042874332</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>15.16711198896096</v>
+        <v>18.15766215102304</v>
       </c>
       <c r="L19">
-        <v>19.49862627574077</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>15.15493438704376</v>
+      </c>
+      <c r="M19">
+        <v>19.43221843114661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.560894499291</v>
+        <v>22.41173033907069</v>
       </c>
       <c r="C20">
-        <v>12.18508447136489</v>
+        <v>11.95748313684974</v>
       </c>
       <c r="D20">
-        <v>11.59681264112023</v>
+        <v>11.65557042388545</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.05774164144226</v>
+        <v>76.04817830874143</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.023587023336</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>18.73728691962298</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>15.50822468018477</v>
+        <v>18.56448317402474</v>
       </c>
       <c r="L20">
-        <v>19.93095767339467</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>15.4953180094796</v>
+      </c>
+      <c r="M20">
+        <v>19.86318050097754</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.23664639106367</v>
+        <v>24.07806441711536</v>
       </c>
       <c r="C21">
-        <v>13.04040301265994</v>
+        <v>12.80975120951294</v>
       </c>
       <c r="D21">
-        <v>12.22911778995686</v>
+        <v>12.28001983541819</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.96579741751523</v>
+        <v>80.91851256360471</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2.004140759308254</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>20.09033987094119</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>16.63486245835781</v>
+        <v>19.91165706698796</v>
       </c>
       <c r="L21">
-        <v>21.35960109086755</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>16.61932971194212</v>
+      </c>
+      <c r="M21">
+        <v>21.28702802751513</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.31624719454954</v>
+        <v>25.15144418668839</v>
       </c>
       <c r="C22">
-        <v>13.5975056101762</v>
+        <v>13.36453678821702</v>
       </c>
       <c r="D22">
-        <v>12.64134831164152</v>
+        <v>12.68726003376373</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.13814739384712</v>
+        <v>84.06675642223713</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.991233467528938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>20.9632804381596</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>17.35894012596847</v>
+        <v>20.78051592392676</v>
       </c>
       <c r="L22">
-        <v>22.2784362253629</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>17.34152499864765</v>
+      </c>
+      <c r="M22">
+        <v>22.20253317218296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.74121263046069</v>
+        <v>24.57974165942507</v>
       </c>
       <c r="C23">
-        <v>13.3001681070339</v>
+        <v>13.06846822044353</v>
       </c>
       <c r="D23">
-        <v>12.42134320648755</v>
+        <v>12.46990780250283</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.44764598579167</v>
+        <v>82.38908869413231</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.998145347600641</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>20.49819363905963</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>16.97344775903204</v>
+        <v>20.31763352007236</v>
       </c>
       <c r="L23">
-        <v>21.78918737841038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>16.95705506609769</v>
+      </c>
+      <c r="M23">
+        <v>21.71508321480803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.53318848778946</v>
+        <v>22.38417831273195</v>
       </c>
       <c r="C24">
-        <v>12.17103679908377</v>
+        <v>11.94348037224621</v>
       </c>
       <c r="D24">
-        <v>11.5864441465987</v>
+        <v>11.64533328382342</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.97680598664292</v>
+        <v>75.96787213056801</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.023902527482337</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>18.71493460323183</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>15.48957080521104</v>
+        <v>18.5422236912502</v>
       </c>
       <c r="L24">
-        <v>19.90731299909672</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>15.47670476047516</v>
+      </c>
+      <c r="M24">
+        <v>19.83961164779693</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.06225114955589</v>
+        <v>19.92688653447377</v>
       </c>
       <c r="C25">
-        <v>10.93006211399652</v>
+        <v>10.70577507027624</v>
       </c>
       <c r="D25">
-        <v>10.6748377983744</v>
+        <v>10.74569692875841</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.79712734878161</v>
+        <v>68.84563434439747</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.051255349197601</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.72361040760491</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>13.95220505832393</v>
+        <v>16.55864794773691</v>
       </c>
       <c r="L25">
-        <v>17.79550479446049</v>
+        <v>13.91874723789872</v>
+      </c>
+      <c r="M25">
+        <v>17.73416559989789</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.02139921963365</v>
+        <v>21.223719944829</v>
       </c>
       <c r="C2">
-        <v>9.760621778929943</v>
+        <v>14.73061272356643</v>
       </c>
       <c r="D2">
-        <v>10.06949043773908</v>
+        <v>2.881803239351762</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.39643226923248</v>
+        <v>29.27307160615257</v>
       </c>
       <c r="G2">
-        <v>2.071399951409095</v>
+        <v>2.044207153500673</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>15.02228087740207</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>12.836502333904</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>16.09682869806102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>30.10571844437034</v>
+      </c>
+      <c r="N2">
+        <v>11.31774273251701</v>
+      </c>
+      <c r="O2">
+        <v>22.37611115731233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.66226121808612</v>
+        <v>19.74526078995902</v>
       </c>
       <c r="C3">
-        <v>9.093952333710414</v>
+        <v>13.76545941658972</v>
       </c>
       <c r="D3">
-        <v>9.601173812991339</v>
+        <v>2.975207843461058</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.56528787255168</v>
+        <v>27.73095250770171</v>
       </c>
       <c r="G3">
-        <v>2.08520313885942</v>
+        <v>2.053836459043081</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.92696316635091</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.08400178089835</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.92633438878006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.77497037665884</v>
+      </c>
+      <c r="N3">
+        <v>11.59571679760907</v>
+      </c>
+      <c r="O3">
+        <v>21.35666262267278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79219103811604</v>
+        <v>18.7886888614794</v>
       </c>
       <c r="C4">
-        <v>8.67038595810634</v>
+        <v>13.14206451932391</v>
       </c>
       <c r="D4">
-        <v>9.308466523894305</v>
+        <v>3.032311747685043</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.14362206189514</v>
+        <v>26.7775667875046</v>
       </c>
       <c r="G4">
-        <v>2.093793563985517</v>
+        <v>2.059871050403775</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.22585376594706</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>11.61265800210553</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>14.17580102764468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.29566763402707</v>
+      </c>
+      <c r="N4">
+        <v>11.76907831029083</v>
+      </c>
+      <c r="O4">
+        <v>20.73529760676241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.42841533222983</v>
+        <v>18.38645859934391</v>
       </c>
       <c r="C5">
-        <v>8.494031897865305</v>
+        <v>12.88022951682747</v>
       </c>
       <c r="D5">
-        <v>9.187885777218906</v>
+        <v>3.055565764769058</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.13941225717073</v>
+        <v>26.38774884991693</v>
       </c>
       <c r="G5">
-        <v>2.097328542928264</v>
+        <v>2.06236363522302</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.93270922391667</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>11.41831543983305</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.86170235789758</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.67977371947019</v>
+      </c>
+      <c r="N5">
+        <v>11.84044659676039</v>
+      </c>
+      <c r="O5">
+        <v>20.48343232604569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.36744668946253</v>
+        <v>18.31891420979071</v>
       </c>
       <c r="C6">
-        <v>8.464517624025332</v>
+        <v>12.83627976368554</v>
       </c>
       <c r="D6">
-        <v>9.167785262174581</v>
+        <v>3.05942733257874</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.9716218139485</v>
+        <v>26.32295269475058</v>
       </c>
       <c r="G6">
-        <v>2.097917741431871</v>
+        <v>2.062779621262435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.88357677265718</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>11.38591132903872</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.80904155052805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.57669072878034</v>
+      </c>
+      <c r="N6">
+        <v>11.8523421828185</v>
+      </c>
+      <c r="O6">
+        <v>20.4416981973001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78732268232442</v>
+        <v>18.78331472318682</v>
       </c>
       <c r="C7">
-        <v>8.668022964625617</v>
+        <v>13.13856495240336</v>
       </c>
       <c r="D7">
-        <v>9.306845581313967</v>
+        <v>3.03262536872931</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.13014897592591</v>
+        <v>26.77231433902153</v>
       </c>
       <c r="G7">
-        <v>2.093841092367458</v>
+        <v>2.059904527472117</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.22193074082915</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>11.61004606934603</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>14.17159869265443</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.28741552913086</v>
+      </c>
+      <c r="N7">
+        <v>11.77003782404238</v>
+      </c>
+      <c r="O7">
+        <v>20.73189512096678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.55997142677227</v>
+        <v>20.7239811051453</v>
       </c>
       <c r="C8">
-        <v>9.533597369377771</v>
+        <v>14.40418073736559</v>
       </c>
       <c r="D8">
-        <v>9.909076464459647</v>
+        <v>2.914089726051084</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.08981575789391</v>
+        <v>28.74287021598384</v>
       </c>
       <c r="G8">
-        <v>2.076138777349143</v>
+        <v>2.047503712248727</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14.65038856293087</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>12.57899890749098</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>15.69969828844586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.31147214921358</v>
+      </c>
+      <c r="N8">
+        <v>11.41306029993881</v>
+      </c>
+      <c r="O8">
+        <v>22.02375464965298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.76840842736678</v>
+        <v>24.1496897726174</v>
       </c>
       <c r="C9">
-        <v>11.12719175867683</v>
+        <v>16.64488453015059</v>
       </c>
       <c r="D9">
-        <v>11.05062335561242</v>
+        <v>2.677274531471654</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.27472350256267</v>
+        <v>32.54639330003485</v>
       </c>
       <c r="G9">
-        <v>2.0420629321686</v>
+        <v>2.024015039119117</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.23759551204935</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>14.404980156763</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>18.45595279191731</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.91040572305354</v>
+      </c>
+      <c r="N9">
+        <v>10.73203493839477</v>
+      </c>
+      <c r="O9">
+        <v>24.5880494913211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.98603853722168</v>
+        <v>26.44571426172145</v>
       </c>
       <c r="C10">
-        <v>12.25001557926544</v>
+        <v>18.1492409998356</v>
       </c>
       <c r="D10">
-        <v>11.86963514126311</v>
+        <v>2.496579577962711</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>77.72391661886738</v>
+        <v>35.30064697957404</v>
       </c>
       <c r="G10">
-        <v>2.016965875150565</v>
+        <v>2.007034596876153</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>19.02858023510223</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>15.88309528012302</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>20.3542680416534</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38.91283076796269</v>
+      </c>
+      <c r="N10">
+        <v>10.23977255638106</v>
+      </c>
+      <c r="O10">
+        <v>26.48932339376064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.97108133721894</v>
+        <v>27.44489648190316</v>
       </c>
       <c r="C11">
-        <v>12.75470926391692</v>
+        <v>18.80411825819785</v>
       </c>
       <c r="D11">
-        <v>12.23963251655649</v>
+        <v>2.411750343979972</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>80.60513061979114</v>
+        <v>36.57436367654716</v>
       </c>
       <c r="G11">
-        <v>2.005410845671102</v>
+        <v>1.999306014025296</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.82510668734322</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>16.54726816632538</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>21.19570762507822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40.73794181274539</v>
+      </c>
+      <c r="N11">
+        <v>10.01669647891532</v>
+      </c>
+      <c r="O11">
+        <v>27.35958450786938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.34133862747773</v>
+        <v>27.8169866053115</v>
       </c>
       <c r="C12">
-        <v>12.94539726916345</v>
+        <v>19.04798517938351</v>
       </c>
       <c r="D12">
-        <v>12.37956959829533</v>
+        <v>2.379122383126746</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>81.69004962600918</v>
+        <v>37.08988351948814</v>
       </c>
       <c r="G12">
-        <v>2.001002576805716</v>
+        <v>1.996372097382832</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>20.12468482538553</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>16.79660397974604</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>21.5117022892168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41.43302117561089</v>
+      </c>
+      <c r="N12">
+        <v>9.932259154535773</v>
+      </c>
+      <c r="O12">
+        <v>27.69262321040972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.26170782732063</v>
+        <v>27.73712560170997</v>
       </c>
       <c r="C13">
-        <v>12.90434016961446</v>
+        <v>18.99564543928728</v>
       </c>
       <c r="D13">
-        <v>12.34943558714956</v>
+        <v>2.386174227648645</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>81.45663889453365</v>
+        <v>36.97896512704181</v>
       </c>
       <c r="G13">
-        <v>2.001953657535079</v>
+        <v>1.997004415186037</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>20.06024624010045</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>16.74299430048177</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>21.44375493483343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41.28308305520584</v>
+      </c>
+      <c r="N13">
+        <v>9.950444173430039</v>
+      </c>
+      <c r="O13">
+        <v>27.61893246022308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.00159364669657</v>
+        <v>27.47563296753904</v>
       </c>
       <c r="C14">
-        <v>12.77040299003756</v>
+        <v>18.82426323851206</v>
       </c>
       <c r="D14">
-        <v>12.25114735940929</v>
+        <v>2.409076984097627</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>80.69450096586812</v>
+        <v>36.61682548835266</v>
       </c>
       <c r="G14">
-        <v>2.005048910602139</v>
+        <v>1.999064828375032</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.84979059102668</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>16.56782208415879</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>21.22175416256989</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>40.79502436871444</v>
+      </c>
+      <c r="N14">
+        <v>10.00974958945418</v>
+      </c>
+      <c r="O14">
+        <v>27.38676007917558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.84192890213658</v>
+        <v>27.31465087326205</v>
       </c>
       <c r="C15">
-        <v>12.68832156954557</v>
+        <v>18.71875358286447</v>
       </c>
       <c r="D15">
-        <v>12.19092727248174</v>
+        <v>2.423035513934387</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.2269194265174</v>
+        <v>36.39467652981062</v>
       </c>
       <c r="G15">
-        <v>2.006940172587536</v>
+        <v>2.000325720079728</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.72063225114207</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>16.46025463896324</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>21.08544615083952</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40.49670541188729</v>
+      </c>
+      <c r="N15">
+        <v>10.04607780160797</v>
+      </c>
+      <c r="O15">
+        <v>27.24469579508731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.92123912624319</v>
+        <v>26.37952350572351</v>
       </c>
       <c r="C16">
-        <v>12.21694641218645</v>
+        <v>18.10586010585271</v>
       </c>
       <c r="D16">
-        <v>11.84541876888342</v>
+        <v>2.502060300406578</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>77.53467807650351</v>
+        <v>35.21909043887683</v>
       </c>
       <c r="G16">
-        <v>2.017717205937114</v>
+        <v>2.00753905727308</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.97620532850876</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>15.83936207871127</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>20.29887695458163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>38.79390439426118</v>
+      </c>
+      <c r="N16">
+        <v>10.25436131064518</v>
+      </c>
+      <c r="O16">
+        <v>26.43257852473667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.35077115265573</v>
+        <v>25.79441286927455</v>
       </c>
       <c r="C17">
-        <v>11.92650566807531</v>
+        <v>17.72240381682312</v>
       </c>
       <c r="D17">
-        <v>11.63292470984299</v>
+        <v>2.549784852621707</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>75.87051105004497</v>
+        <v>34.50364497475682</v>
       </c>
       <c r="G17">
-        <v>2.024284817249574</v>
+        <v>2.011958842000206</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.51523443102565</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>15.45413476620327</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>19.8110329954323</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.75247096144045</v>
+      </c>
+      <c r="N17">
+        <v>10.38229912161484</v>
+      </c>
+      <c r="O17">
+        <v>25.93590086595857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.02036991005083</v>
+        <v>25.45359445148303</v>
       </c>
       <c r="C18">
-        <v>11.75884781794214</v>
+        <v>17.49906932237304</v>
       </c>
       <c r="D18">
-        <v>11.51044657074824</v>
+        <v>2.576996285697983</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>74.90827328953473</v>
+        <v>34.09148908450377</v>
       </c>
       <c r="G18">
-        <v>2.02805020974515</v>
+        <v>2.014501072005368</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.24834351722372</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>15.23084350301028</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>19.52831926058873</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37.15363200001809</v>
+      </c>
+      <c r="N18">
+        <v>10.45597208725935</v>
+      </c>
+      <c r="O18">
+        <v>25.6507051320416</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.90809139370413</v>
+        <v>25.33745761773727</v>
       </c>
       <c r="C19">
-        <v>11.70196579294219</v>
+        <v>17.42297112986273</v>
       </c>
       <c r="D19">
-        <v>11.4689282585661</v>
+        <v>2.586172032413133</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>74.58157092820805</v>
+        <v>33.95181984707322</v>
       </c>
       <c r="G19">
-        <v>2.029323375037133</v>
+        <v>2.015362023016906</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.15766215102304</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>15.15493438704376</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>19.43221843114661</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.95081873860075</v>
+      </c>
+      <c r="N19">
+        <v>10.480933734068</v>
+      </c>
+      <c r="O19">
+        <v>25.55421891212172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.41173033907069</v>
+        <v>25.8571400523844</v>
       </c>
       <c r="C20">
-        <v>11.95748313684974</v>
+        <v>17.7635103575236</v>
       </c>
       <c r="D20">
-        <v>11.65557042388545</v>
+        <v>2.544729994127824</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.04817830874143</v>
+        <v>34.57987053620696</v>
       </c>
       <c r="G20">
-        <v>2.023587023336</v>
+        <v>2.011488383197064</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.56448317402474</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>15.4953180094796</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>19.86318050097754</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.86329533024414</v>
+      </c>
+      <c r="N20">
+        <v>10.36867154455999</v>
+      </c>
+      <c r="O20">
+        <v>25.98872177248115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.07806441711536</v>
+        <v>27.55260810901184</v>
       </c>
       <c r="C21">
-        <v>12.80975120951294</v>
+        <v>18.8747132292956</v>
       </c>
       <c r="D21">
-        <v>12.28001983541819</v>
+        <v>2.40236476564015</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>80.91851256360471</v>
+        <v>36.72326182121737</v>
       </c>
       <c r="G21">
-        <v>2.004140759308254</v>
+        <v>1.99845989325234</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.91165706698796</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>16.61932971194212</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>21.28702802751513</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>40.93823998965043</v>
+      </c>
+      <c r="N21">
+        <v>9.992329928440464</v>
+      </c>
+      <c r="O21">
+        <v>27.45492317329795</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.15144418668839</v>
+        <v>28.62422435923239</v>
       </c>
       <c r="C22">
-        <v>13.36453678821702</v>
+        <v>19.57698651108058</v>
       </c>
       <c r="D22">
-        <v>12.68726003376373</v>
+        <v>2.306292704781431</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.06675642223713</v>
+        <v>38.21951740301945</v>
       </c>
       <c r="G22">
-        <v>1.991233467528938</v>
+        <v>1.989898323892154</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>20.78051592392676</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>17.34152499864765</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>22.20253317218296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>42.97334150273562</v>
+      </c>
+      <c r="N22">
+        <v>9.746528601603254</v>
+      </c>
+      <c r="O22">
+        <v>28.55602037088949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.57974165942507</v>
+        <v>28.05553610267755</v>
       </c>
       <c r="C23">
-        <v>13.06846822044353</v>
+        <v>19.20432279936933</v>
       </c>
       <c r="D23">
-        <v>12.46990780250283</v>
+        <v>2.357896246960608</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>82.38908869413231</v>
+        <v>37.42209681592227</v>
       </c>
       <c r="G23">
-        <v>1.998145347600641</v>
+        <v>1.994474704568824</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>20.31763352007236</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>16.95705506609769</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>21.71508321480803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>41.88343484399276</v>
+      </c>
+      <c r="N23">
+        <v>9.87773633694716</v>
+      </c>
+      <c r="O23">
+        <v>27.9464857467905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.38417831273195</v>
+        <v>25.82879491040352</v>
       </c>
       <c r="C24">
-        <v>11.94348037224621</v>
+        <v>17.74493507086835</v>
       </c>
       <c r="D24">
-        <v>11.64533328382342</v>
+        <v>2.547015990627305</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>75.96787213056801</v>
+        <v>34.5454115923234</v>
       </c>
       <c r="G24">
-        <v>2.023902527482337</v>
+        <v>2.011701073286337</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.5422236912502</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>15.47670476047516</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>19.83961164779693</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.8131921948745</v>
+      </c>
+      <c r="N24">
+        <v>10.37483219267495</v>
+      </c>
+      <c r="O24">
+        <v>25.96484036699671</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.92688653447377</v>
+        <v>23.26255525455404</v>
       </c>
       <c r="C25">
-        <v>10.70577507027624</v>
+        <v>16.06404381893761</v>
       </c>
       <c r="D25">
-        <v>10.74569692875841</v>
+        <v>2.742180591647343</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>68.84563434439747</v>
+        <v>31.52473326795541</v>
       </c>
       <c r="G25">
-        <v>2.051255349197601</v>
+        <v>2.030302042350993</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.55864794773691</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>13.91874723789872</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>17.73416559989789</v>
+        <v>33.4230731759134</v>
+      </c>
+      <c r="N25">
+        <v>10.91457730675821</v>
+      </c>
+      <c r="O25">
+        <v>23.89149267100196</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.223719944829</v>
+        <v>15.2699324735623</v>
       </c>
       <c r="C2">
-        <v>14.73061272356643</v>
+        <v>7.432331857915485</v>
       </c>
       <c r="D2">
-        <v>2.881803239351762</v>
+        <v>2.283261386927722</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>29.27307160615257</v>
+        <v>36.10223917299167</v>
       </c>
       <c r="G2">
-        <v>2.044207153500673</v>
+        <v>2.160712330974553</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>25.08608687145732</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.036847313353343</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.00623692715906</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.076314332041312</v>
       </c>
       <c r="M2">
-        <v>30.10571844437034</v>
+        <v>11.50989858334717</v>
       </c>
       <c r="N2">
-        <v>11.31774273251701</v>
+        <v>16.98394027806559</v>
       </c>
       <c r="O2">
-        <v>22.37611115731233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74526078995902</v>
+        <v>14.51605572165628</v>
       </c>
       <c r="C3">
-        <v>13.76545941658972</v>
+        <v>6.904314789562684</v>
       </c>
       <c r="D3">
-        <v>2.975207843461058</v>
+        <v>2.226397361807091</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.73095250770171</v>
+        <v>35.67046489432404</v>
       </c>
       <c r="G3">
-        <v>2.053836459043081</v>
+        <v>2.168106254121966</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>25.00157552340485</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.070697773151775</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.41697014039583</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.022559806673498</v>
       </c>
       <c r="M3">
-        <v>27.77497037665884</v>
+        <v>11.2579471912324</v>
       </c>
       <c r="N3">
-        <v>11.59571679760907</v>
+        <v>17.15966115798805</v>
       </c>
       <c r="O3">
-        <v>21.35666262267278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.7886888614794</v>
+        <v>14.04203696851785</v>
       </c>
       <c r="C4">
-        <v>13.14206451932391</v>
+        <v>6.563017200025284</v>
       </c>
       <c r="D4">
-        <v>3.032311747685043</v>
+        <v>2.191423322307557</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.7775667875046</v>
+        <v>35.42576805957685</v>
       </c>
       <c r="G4">
-        <v>2.059871050403775</v>
+        <v>2.172780435386105</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>24.96352120394601</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.092276432949181</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.04884353702105</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.992293811923661</v>
       </c>
       <c r="M4">
-        <v>26.29566763402707</v>
+        <v>11.10637780478769</v>
       </c>
       <c r="N4">
-        <v>11.76907831029083</v>
+        <v>17.27165388436444</v>
       </c>
       <c r="O4">
-        <v>20.73529760676241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.38645859934391</v>
+        <v>13.84632404780069</v>
       </c>
       <c r="C5">
-        <v>12.88022951682747</v>
+        <v>6.419591861339108</v>
       </c>
       <c r="D5">
-        <v>3.055565764769058</v>
+        <v>2.177170484566477</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.38774884991693</v>
+        <v>35.331108319018</v>
       </c>
       <c r="G5">
-        <v>2.06236363522302</v>
+        <v>2.174720022140884</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>24.95138329233667</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.101272359703739</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.89744895823651</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.980644632775156</v>
       </c>
       <c r="M5">
-        <v>25.67977371947019</v>
+        <v>11.04545986937667</v>
       </c>
       <c r="N5">
-        <v>11.84044659676039</v>
+        <v>17.31831752175151</v>
       </c>
       <c r="O5">
-        <v>20.48343232604569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.31891420979071</v>
+        <v>13.8136805143086</v>
       </c>
       <c r="C6">
-        <v>12.83627976368554</v>
+        <v>6.395512552940434</v>
       </c>
       <c r="D6">
-        <v>3.05942733257874</v>
+        <v>2.174804211977329</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.32295269475058</v>
+        <v>35.31569309654844</v>
       </c>
       <c r="G6">
-        <v>2.062779621262435</v>
+        <v>2.175044221870024</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>24.94956810680971</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.102778431191658</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.87223330585408</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.978751491177309</v>
       </c>
       <c r="M6">
-        <v>25.57669072878034</v>
+        <v>11.03539747583845</v>
       </c>
       <c r="N6">
-        <v>11.8523421828185</v>
+        <v>17.3261278075275</v>
       </c>
       <c r="O6">
-        <v>20.4416981973001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.78331472318682</v>
+        <v>14.03940745965168</v>
       </c>
       <c r="C7">
-        <v>13.13856495240336</v>
+        <v>6.561100562258471</v>
       </c>
       <c r="D7">
-        <v>3.03262536872931</v>
+        <v>2.191231086440644</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.77231433902153</v>
+        <v>35.42447108108669</v>
       </c>
       <c r="G7">
-        <v>2.059904527472117</v>
+        <v>2.172806450992067</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>24.96334400954171</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.092396931943066</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.04680706803777</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.992133942042712</v>
       </c>
       <c r="M7">
-        <v>26.28741552913086</v>
+        <v>11.10555273099489</v>
       </c>
       <c r="N7">
-        <v>11.77003782404238</v>
+        <v>17.27227905928726</v>
       </c>
       <c r="O7">
-        <v>20.73189512096678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.7239811051453</v>
+        <v>15.01244608495368</v>
       </c>
       <c r="C8">
-        <v>14.40418073736559</v>
+        <v>7.253790919221766</v>
       </c>
       <c r="D8">
-        <v>2.914089726051084</v>
+        <v>2.263675179309176</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>28.74287021598384</v>
+        <v>35.94908246095361</v>
       </c>
       <c r="G8">
-        <v>2.047503712248727</v>
+        <v>2.163234537504143</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>25.05400969998514</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.048355747119332</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.80448379393636</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.057208739027232</v>
       </c>
       <c r="M8">
-        <v>29.31147214921358</v>
+        <v>11.4224124762338</v>
       </c>
       <c r="N8">
-        <v>11.41306029993881</v>
+        <v>17.0436745127536</v>
       </c>
       <c r="O8">
-        <v>22.02375464965298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.1496897726174</v>
+        <v>16.8231919258569</v>
       </c>
       <c r="C9">
-        <v>16.64488453015059</v>
+        <v>8.478726840237192</v>
       </c>
       <c r="D9">
-        <v>2.677274531471654</v>
+        <v>2.404707749076085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.54639330003485</v>
+        <v>37.14294432725043</v>
       </c>
       <c r="G9">
-        <v>2.024015039119117</v>
+        <v>2.1454787747376</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>25.34651536907587</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.9681658241922</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.23257945079009</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.206730453920162</v>
       </c>
       <c r="M9">
-        <v>34.91040572305354</v>
+        <v>12.06600254665867</v>
       </c>
       <c r="N9">
-        <v>10.73203493839477</v>
+        <v>16.62820963609136</v>
       </c>
       <c r="O9">
-        <v>24.5880494913211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.44571426172145</v>
+        <v>18.08485063337433</v>
       </c>
       <c r="C10">
-        <v>18.1492409998356</v>
+        <v>9.300605244256911</v>
       </c>
       <c r="D10">
-        <v>2.496579577962711</v>
+        <v>2.507060565975983</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.30064697957404</v>
+        <v>38.12472092162986</v>
       </c>
       <c r="G10">
-        <v>2.007034596876153</v>
+        <v>2.132976462326575</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>25.63816847944801</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.912827331303411</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.23852271847262</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.330161363918577</v>
       </c>
       <c r="M10">
-        <v>38.91283076796269</v>
+        <v>12.54912058641708</v>
       </c>
       <c r="N10">
-        <v>10.23977255638106</v>
+        <v>16.34352722701486</v>
       </c>
       <c r="O10">
-        <v>26.48932339376064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.44489648190316</v>
+        <v>18.64263044631456</v>
       </c>
       <c r="C11">
-        <v>18.80411825819785</v>
+        <v>9.658318233692787</v>
       </c>
       <c r="D11">
-        <v>2.411750343979972</v>
+        <v>2.553250045885356</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>36.57436367654716</v>
+        <v>38.59489152155189</v>
       </c>
       <c r="G11">
-        <v>1.999306014025296</v>
+        <v>2.12738849074305</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>25.78900329547049</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.888385698225338</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.68559903406651</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.389305022721146</v>
       </c>
       <c r="M11">
-        <v>40.73794181274539</v>
+        <v>12.77052359953166</v>
       </c>
       <c r="N11">
-        <v>10.01669647891532</v>
+        <v>16.21865192971886</v>
       </c>
       <c r="O11">
-        <v>27.35958450786938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.8169866053115</v>
+        <v>18.85145872787586</v>
       </c>
       <c r="C12">
-        <v>19.04798517938351</v>
+        <v>9.791519094723817</v>
       </c>
       <c r="D12">
-        <v>2.379122383126746</v>
+        <v>2.570681645796271</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.08988351948814</v>
+        <v>38.77638616832233</v>
       </c>
       <c r="G12">
-        <v>1.996372097382832</v>
+        <v>2.125285126598341</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>25.84885650446255</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.879231821762898</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.85331734131187</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.41213511357985</v>
       </c>
       <c r="M12">
-        <v>41.43302117561089</v>
+        <v>12.85455375346909</v>
       </c>
       <c r="N12">
-        <v>9.932259154535773</v>
+        <v>16.17204936246561</v>
       </c>
       <c r="O12">
-        <v>27.69262321040972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.73712560170997</v>
+        <v>18.80659093886577</v>
       </c>
       <c r="C13">
-        <v>18.99564543928728</v>
+        <v>9.762931179349744</v>
       </c>
       <c r="D13">
-        <v>2.386174227648645</v>
+        <v>2.56693015114535</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>36.97896512704181</v>
+        <v>38.73714347768967</v>
       </c>
       <c r="G13">
-        <v>1.997004415186037</v>
+        <v>2.125737586901153</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>25.8358423826806</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.881198812625143</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>15.81726725502286</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.407198903505819</v>
       </c>
       <c r="M13">
-        <v>41.28308305520584</v>
+        <v>12.83644856271696</v>
       </c>
       <c r="N13">
-        <v>9.950444173430039</v>
+        <v>16.18205524189514</v>
       </c>
       <c r="O13">
-        <v>27.61893246022308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.47563296753904</v>
+        <v>18.65985908017746</v>
       </c>
       <c r="C14">
-        <v>18.82426323851206</v>
+        <v>9.669321586636487</v>
       </c>
       <c r="D14">
-        <v>2.409076984097627</v>
+        <v>2.554685370317113</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>36.61682548835266</v>
+        <v>38.6097536421731</v>
       </c>
       <c r="G14">
-        <v>1.999064828375032</v>
+        <v>2.127215201310432</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>25.79387191367111</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.887630587892718</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>15.69942927206137</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.391174557400366</v>
       </c>
       <c r="M14">
-        <v>40.79502436871444</v>
+        <v>12.77743324266508</v>
       </c>
       <c r="N14">
-        <v>10.00974958945418</v>
+        <v>16.2148040546996</v>
       </c>
       <c r="O14">
-        <v>27.38676007917558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.31465087326205</v>
+        <v>18.56966868639213</v>
       </c>
       <c r="C15">
-        <v>18.71875358286447</v>
+        <v>9.611691115637539</v>
       </c>
       <c r="D15">
-        <v>2.423035513934387</v>
+        <v>2.547177217676714</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>36.39467652981062</v>
+        <v>38.53217512953564</v>
       </c>
       <c r="G15">
-        <v>2.000325720079728</v>
+        <v>2.128121883894139</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>25.76852374253302</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.891583360821098</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>15.62704283322828</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.381415758281324</v>
       </c>
       <c r="M15">
-        <v>40.49670541188729</v>
+        <v>12.741308137461</v>
       </c>
       <c r="N15">
-        <v>10.04607780160797</v>
+        <v>16.23495349917721</v>
       </c>
       <c r="O15">
-        <v>27.24469579508731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.37952350572351</v>
+        <v>18.04806689875719</v>
       </c>
       <c r="C16">
-        <v>18.10586010585271</v>
+        <v>9.276908225493685</v>
       </c>
       <c r="D16">
-        <v>2.502060300406578</v>
+        <v>2.504033946329597</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.21909043887683</v>
+        <v>38.09447352901761</v>
       </c>
       <c r="G16">
-        <v>2.00753905727308</v>
+        <v>2.133343514531666</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>25.62868702476438</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.914439075395872</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.20908717537995</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.3263566957866</v>
       </c>
       <c r="M16">
-        <v>38.79390439426118</v>
+        <v>12.53468020342253</v>
       </c>
       <c r="N16">
-        <v>10.25436131064518</v>
+        <v>16.35178283021297</v>
       </c>
       <c r="O16">
-        <v>26.43257852473667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.79441286927455</v>
+        <v>17.72388623183454</v>
       </c>
       <c r="C17">
-        <v>17.72240381682312</v>
+        <v>9.067436062832094</v>
       </c>
       <c r="D17">
-        <v>2.549784852621707</v>
+        <v>2.477466951275401</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.50364497475682</v>
+        <v>37.83203509326204</v>
       </c>
       <c r="G17">
-        <v>2.011958842000206</v>
+        <v>2.136571165658041</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>25.54764026561436</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.928645306477904</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.94993337243369</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.29334875235616</v>
       </c>
       <c r="M17">
-        <v>37.75247096144045</v>
+        <v>12.40830426256082</v>
       </c>
       <c r="N17">
-        <v>10.38229912161484</v>
+        <v>16.42465190339773</v>
       </c>
       <c r="O17">
-        <v>25.93590086595857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.45359445148303</v>
+        <v>17.53590768542188</v>
       </c>
       <c r="C18">
-        <v>17.49906932237304</v>
+        <v>8.945427531117646</v>
       </c>
       <c r="D18">
-        <v>2.576996285697983</v>
+        <v>2.462151597694156</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.09148908450377</v>
+        <v>37.68330061511656</v>
       </c>
       <c r="G18">
-        <v>2.014501072005368</v>
+        <v>2.138437084580067</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>25.50272609082093</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.936885495694409</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.79988596177135</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.274645098472717</v>
       </c>
       <c r="M18">
-        <v>37.15363200001809</v>
+        <v>12.33577189991241</v>
       </c>
       <c r="N18">
-        <v>10.45597208725935</v>
+        <v>16.46699851151849</v>
       </c>
       <c r="O18">
-        <v>25.6507051320416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.33745761773727</v>
+        <v>17.47200311736194</v>
       </c>
       <c r="C19">
-        <v>17.42297112986273</v>
+        <v>8.903853536703828</v>
       </c>
       <c r="D19">
-        <v>2.586172032413133</v>
+        <v>2.456960333990033</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>33.95181984707322</v>
+        <v>37.63331991214589</v>
       </c>
       <c r="G19">
-        <v>2.015362023016906</v>
+        <v>2.139070524361116</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>25.4878074777594</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.939687464690405</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.74891500130043</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.268360646547379</v>
       </c>
       <c r="M19">
-        <v>36.95081873860075</v>
+        <v>12.31124190785669</v>
       </c>
       <c r="N19">
-        <v>10.480933734068</v>
+        <v>16.48141039506607</v>
       </c>
       <c r="O19">
-        <v>25.55421891212172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.8571400523844</v>
+        <v>17.75855354528945</v>
       </c>
       <c r="C20">
-        <v>17.7635103575236</v>
+        <v>9.089892164438563</v>
       </c>
       <c r="D20">
-        <v>2.544729994127824</v>
+        <v>2.480298696445309</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.57987053620696</v>
+        <v>37.85974260976136</v>
       </c>
       <c r="G20">
-        <v>2.011488383197064</v>
+        <v>2.136226608947036</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25.556090816192</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.927125898812352</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>14.97762364208803</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.296833334226875</v>
       </c>
       <c r="M20">
-        <v>37.86329533024414</v>
+        <v>12.42174142465729</v>
       </c>
       <c r="N20">
-        <v>10.36867154455999</v>
+        <v>16.41684979451385</v>
       </c>
       <c r="O20">
-        <v>25.98872177248115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.55260810901184</v>
+        <v>18.7030230730313</v>
       </c>
       <c r="C21">
-        <v>18.8747132292956</v>
+        <v>9.696877696628867</v>
       </c>
       <c r="D21">
-        <v>2.40236476564015</v>
+        <v>2.55828360720306</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>36.72326182121737</v>
+        <v>38.64707692317694</v>
       </c>
       <c r="G21">
-        <v>1.99845989325234</v>
+        <v>2.126780859543801</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25.80612441821362</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.885738691178039</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.73408442314439</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.395869499832895</v>
       </c>
       <c r="M21">
-        <v>40.93823998965043</v>
+        <v>12.79476264930241</v>
       </c>
       <c r="N21">
-        <v>9.992329928440464</v>
+        <v>16.20516616939207</v>
       </c>
       <c r="O21">
-        <v>27.45492317329795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.62422435923239</v>
+        <v>19.30634064570948</v>
       </c>
       <c r="C22">
-        <v>19.57698651108058</v>
+        <v>10.08045538059811</v>
       </c>
       <c r="D22">
-        <v>2.306292704781431</v>
+        <v>2.608904043514009</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>38.21951740301945</v>
+        <v>39.18179605949572</v>
       </c>
       <c r="G22">
-        <v>1.989898323892154</v>
+        <v>2.120680574271812</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>25.98553946587874</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.859280346380817</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>16.21925306978082</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.463124926792579</v>
       </c>
       <c r="M22">
-        <v>42.97334150273562</v>
+        <v>13.03964314284817</v>
       </c>
       <c r="N22">
-        <v>9.746528601603254</v>
+        <v>16.07082330947628</v>
       </c>
       <c r="O22">
-        <v>28.55602037088949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.05553610267755</v>
+        <v>18.98563024704562</v>
       </c>
       <c r="C23">
-        <v>19.20432279936933</v>
+        <v>9.876910004576986</v>
       </c>
       <c r="D23">
-        <v>2.357896246960608</v>
+        <v>2.581920153402494</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.42209681592227</v>
+        <v>38.89453994210873</v>
       </c>
       <c r="G23">
-        <v>1.994474704568824</v>
+        <v>2.123930295062763</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>25.88827612583284</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.873348882851913</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.9611688214217</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.426996837533989</v>
       </c>
       <c r="M23">
-        <v>41.88343484399276</v>
+        <v>12.90885912095147</v>
       </c>
       <c r="N23">
-        <v>9.87773633694716</v>
+        <v>16.14215072419424</v>
       </c>
       <c r="O23">
-        <v>27.9464857467905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.82879491040352</v>
+        <v>17.74288543966943</v>
       </c>
       <c r="C24">
-        <v>17.74493507086835</v>
+        <v>9.079744687865487</v>
       </c>
       <c r="D24">
-        <v>2.547015990627305</v>
+        <v>2.479018593656337</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.5454115923234</v>
+        <v>37.8472093654969</v>
       </c>
       <c r="G24">
-        <v>2.011701073286337</v>
+        <v>2.136382350835734</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>25.55226509664799</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.927812595872122</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>14.9651081565221</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.295257104491458</v>
       </c>
       <c r="M24">
-        <v>37.8131921948745</v>
+        <v>12.41566609754069</v>
       </c>
       <c r="N24">
-        <v>10.37483219267495</v>
+        <v>16.42037571772413</v>
       </c>
       <c r="O24">
-        <v>25.96484036699671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.26255525455404</v>
+        <v>16.34486397016122</v>
       </c>
       <c r="C25">
-        <v>16.06404381893761</v>
+        <v>8.161309570412129</v>
       </c>
       <c r="D25">
-        <v>2.742180591647343</v>
+        <v>2.36673680254307</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.52473326795541</v>
+        <v>36.80186915873928</v>
       </c>
       <c r="G25">
-        <v>2.030302042350993</v>
+        <v>2.150181047973075</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>25.25440343486586</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.989217082775826</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.85336258850221</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.163911054656949</v>
       </c>
       <c r="M25">
-        <v>33.4230731759134</v>
+        <v>11.88986609756092</v>
       </c>
       <c r="N25">
-        <v>10.91457730675821</v>
+        <v>16.73704154622028</v>
       </c>
       <c r="O25">
-        <v>23.89149267100196</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.2699324735623</v>
+        <v>18.54781195257897</v>
       </c>
       <c r="C2">
-        <v>7.432331857915485</v>
+        <v>5.756501084900677</v>
       </c>
       <c r="D2">
-        <v>2.283261386927722</v>
+        <v>4.825113339260736</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.10223917299167</v>
+        <v>50.79052207779705</v>
       </c>
       <c r="G2">
-        <v>2.160712330974553</v>
+        <v>3.774114025315235</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>25.08608687145732</v>
+        <v>36.77808963134115</v>
       </c>
       <c r="J2">
-        <v>6.036847313353343</v>
+        <v>10.22087035177882</v>
       </c>
       <c r="K2">
-        <v>13.00623692715906</v>
+        <v>16.46040809085815</v>
       </c>
       <c r="L2">
-        <v>7.076314332041312</v>
+        <v>12.03649010089267</v>
       </c>
       <c r="M2">
-        <v>11.50989858334717</v>
+        <v>18.24008353545074</v>
       </c>
       <c r="N2">
-        <v>16.98394027806559</v>
+        <v>25.34169354331657</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.51605572165628</v>
+        <v>18.44399694080811</v>
       </c>
       <c r="C3">
-        <v>6.904314789562684</v>
+        <v>5.61434756660679</v>
       </c>
       <c r="D3">
-        <v>2.226397361807091</v>
+        <v>4.826246063661417</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.67046489432404</v>
+        <v>50.8200751546264</v>
       </c>
       <c r="G3">
-        <v>2.168106254121966</v>
+        <v>3.776860116866707</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>25.00157552340485</v>
+        <v>36.8320167559992</v>
       </c>
       <c r="J3">
-        <v>6.070697773151775</v>
+        <v>10.23393861403654</v>
       </c>
       <c r="K3">
-        <v>12.41697014039583</v>
+        <v>16.38961486196935</v>
       </c>
       <c r="L3">
-        <v>7.022559806673498</v>
+        <v>12.05193218187985</v>
       </c>
       <c r="M3">
-        <v>11.2579471912324</v>
+        <v>18.24337473424515</v>
       </c>
       <c r="N3">
-        <v>17.15966115798805</v>
+        <v>25.39538001182678</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.04203696851785</v>
+        <v>18.38424289708379</v>
       </c>
       <c r="C4">
-        <v>6.563017200025284</v>
+        <v>5.527064344401918</v>
       </c>
       <c r="D4">
-        <v>2.191423322307557</v>
+        <v>4.827375544967794</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.42576805957685</v>
+        <v>50.84690472958791</v>
       </c>
       <c r="G4">
-        <v>2.172780435386105</v>
+        <v>3.778635901800782</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.96352120394601</v>
+        <v>36.87044569822333</v>
       </c>
       <c r="J4">
-        <v>6.092276432949181</v>
+        <v>10.24242108037399</v>
       </c>
       <c r="K4">
-        <v>12.04884353702105</v>
+        <v>16.34964120505318</v>
       </c>
       <c r="L4">
-        <v>6.992293811923661</v>
+        <v>12.06283884264002</v>
       </c>
       <c r="M4">
-        <v>11.10637780478769</v>
+        <v>18.24824028502438</v>
       </c>
       <c r="N4">
-        <v>17.27165388436444</v>
+        <v>25.43026362334662</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.84632404780069</v>
+        <v>18.36091688448739</v>
       </c>
       <c r="C5">
-        <v>6.419591861339108</v>
+        <v>5.491555229793748</v>
       </c>
       <c r="D5">
-        <v>2.177170484566477</v>
+        <v>4.827945417212656</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.331108319018</v>
+        <v>50.86002118210007</v>
       </c>
       <c r="G5">
-        <v>2.174720022140884</v>
+        <v>3.77938217309211</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.95138329233667</v>
+        <v>36.88744209997629</v>
       </c>
       <c r="J5">
-        <v>6.101272359703739</v>
+        <v>10.24599338577286</v>
       </c>
       <c r="K5">
-        <v>11.89744895823651</v>
+        <v>16.33424307662247</v>
       </c>
       <c r="L5">
-        <v>6.980644632775156</v>
+        <v>12.06764221697217</v>
       </c>
       <c r="M5">
-        <v>11.04545986937667</v>
+        <v>18.25093986177788</v>
       </c>
       <c r="N5">
-        <v>17.31831752175151</v>
+        <v>25.44496248604809</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.8136805143086</v>
+        <v>18.3571060695584</v>
       </c>
       <c r="C6">
-        <v>6.395512552940434</v>
+        <v>5.485664339434453</v>
       </c>
       <c r="D6">
-        <v>2.174804211977329</v>
+        <v>4.82804667712857</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.31569309654844</v>
+        <v>50.86233099152096</v>
       </c>
       <c r="G6">
-        <v>2.175044221870024</v>
+        <v>3.779507459552904</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.94956810680971</v>
+        <v>36.89034502112307</v>
       </c>
       <c r="J6">
-        <v>6.102778431191658</v>
+        <v>10.24659355816614</v>
       </c>
       <c r="K6">
-        <v>11.87223330585408</v>
+        <v>16.33174042696227</v>
       </c>
       <c r="L6">
-        <v>6.978751491177309</v>
+        <v>12.06846149820934</v>
       </c>
       <c r="M6">
-        <v>11.03539747583845</v>
+        <v>18.25143145791498</v>
       </c>
       <c r="N6">
-        <v>17.3261278075275</v>
+        <v>25.44743244540883</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03940745965168</v>
+        <v>18.3839241403174</v>
       </c>
       <c r="C7">
-        <v>6.561100562258471</v>
+        <v>5.526585135029097</v>
       </c>
       <c r="D7">
-        <v>2.191231086440644</v>
+        <v>4.827382786074887</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.42447108108669</v>
+        <v>50.84707278420201</v>
       </c>
       <c r="G7">
-        <v>2.172806450992067</v>
+        <v>3.778645874570322</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.96334400954171</v>
+        <v>36.87066950830003</v>
       </c>
       <c r="J7">
-        <v>6.092396931943066</v>
+        <v>10.24246878909662</v>
       </c>
       <c r="K7">
-        <v>12.04680706803777</v>
+        <v>16.34942991478203</v>
       </c>
       <c r="L7">
-        <v>6.992133942042712</v>
+        <v>12.06290216919429</v>
       </c>
       <c r="M7">
-        <v>11.10555273099489</v>
+        <v>18.24827378827466</v>
       </c>
       <c r="N7">
-        <v>17.27227905928726</v>
+        <v>25.43045989869753</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.01244608495368</v>
+        <v>18.51120186558571</v>
       </c>
       <c r="C8">
-        <v>7.253790919221766</v>
+        <v>5.707521790189783</v>
       </c>
       <c r="D8">
-        <v>2.263675179309176</v>
+        <v>4.825414114465809</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.94908246095361</v>
+        <v>50.79890956102206</v>
       </c>
       <c r="G8">
-        <v>2.163234537504143</v>
+        <v>3.775042311348194</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>25.05400969998514</v>
+        <v>36.79557961080256</v>
       </c>
       <c r="J8">
-        <v>6.048355747119332</v>
+        <v>10.22528133030533</v>
       </c>
       <c r="K8">
-        <v>12.80448379393636</v>
+        <v>16.43528158593326</v>
       </c>
       <c r="L8">
-        <v>7.057208739027232</v>
+        <v>12.04151901846414</v>
       </c>
       <c r="M8">
-        <v>11.4224124762338</v>
+        <v>18.2406288750195</v>
       </c>
       <c r="N8">
-        <v>17.0436745127536</v>
+        <v>25.35980660277967</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.8231919258569</v>
+        <v>18.79143894349279</v>
       </c>
       <c r="C9">
-        <v>8.478726840237192</v>
+        <v>6.059824432035711</v>
       </c>
       <c r="D9">
-        <v>2.404707749076085</v>
+        <v>4.82497628449364</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.14294432725043</v>
+        <v>50.77336270335538</v>
       </c>
       <c r="G9">
-        <v>2.1454787747376</v>
+        <v>3.76868381995655</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.34651536907587</v>
+        <v>36.69055367077245</v>
       </c>
       <c r="J9">
-        <v>5.9681658241922</v>
+        <v>10.19519943746473</v>
       </c>
       <c r="K9">
-        <v>14.23257945079009</v>
+        <v>16.63073672170754</v>
       </c>
       <c r="L9">
-        <v>7.206730453920162</v>
+        <v>12.01087432845407</v>
       </c>
       <c r="M9">
-        <v>12.06600254665867</v>
+        <v>18.24813574313952</v>
       </c>
       <c r="N9">
-        <v>16.62820963609136</v>
+        <v>25.23645568939228</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.08485063337433</v>
+        <v>19.01457381582218</v>
       </c>
       <c r="C10">
-        <v>9.300605244256911</v>
+        <v>6.313954288845719</v>
       </c>
       <c r="D10">
-        <v>2.507060565975983</v>
+        <v>4.826713246922894</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.12472092162986</v>
+        <v>50.79656360974499</v>
       </c>
       <c r="G10">
-        <v>2.132976462326575</v>
+        <v>3.764439100990804</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>25.63816847944801</v>
+        <v>36.63917297148806</v>
       </c>
       <c r="J10">
-        <v>5.912827331303411</v>
+        <v>10.17528539455819</v>
       </c>
       <c r="K10">
-        <v>15.23852271847262</v>
+        <v>16.78995692874286</v>
       </c>
       <c r="L10">
-        <v>7.330161363918577</v>
+        <v>11.99521270497585</v>
       </c>
       <c r="M10">
-        <v>12.54912058641708</v>
+        <v>18.26725706013069</v>
       </c>
       <c r="N10">
-        <v>16.34352722701486</v>
+        <v>25.15504889702789</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.64263044631456</v>
+        <v>19.11949682704144</v>
       </c>
       <c r="C11">
-        <v>9.658318233692787</v>
+        <v>6.4279327512824</v>
       </c>
       <c r="D11">
-        <v>2.553250045885356</v>
+        <v>4.827944255321666</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.59489152155189</v>
+        <v>50.81620985513104</v>
       </c>
       <c r="G11">
-        <v>2.12738849074305</v>
+        <v>3.762599735815855</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>25.78900329547049</v>
+        <v>36.62140198686402</v>
       </c>
       <c r="J11">
-        <v>5.888385698225338</v>
+        <v>10.1666963654666</v>
       </c>
       <c r="K11">
-        <v>15.68559903406651</v>
+        <v>16.86556942393766</v>
       </c>
       <c r="L11">
-        <v>7.389305022721146</v>
+        <v>11.98956925236686</v>
       </c>
       <c r="M11">
-        <v>12.77052359953166</v>
+        <v>18.27888190372107</v>
       </c>
       <c r="N11">
-        <v>16.21865192971886</v>
+        <v>25.12000687010049</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.85145872787586</v>
+        <v>19.15969053492707</v>
       </c>
       <c r="C12">
-        <v>9.791519094723817</v>
+        <v>6.470813403049738</v>
       </c>
       <c r="D12">
-        <v>2.570681645796271</v>
+        <v>4.828473245223347</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.77638616832233</v>
+        <v>50.82495345556682</v>
       </c>
       <c r="G12">
-        <v>2.125285126598341</v>
+        <v>3.761916307179968</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>25.84885650446255</v>
+        <v>36.61547820222391</v>
       </c>
       <c r="J12">
-        <v>5.879231821762898</v>
+        <v>10.16351116021462</v>
       </c>
       <c r="K12">
-        <v>15.85331734131187</v>
+        <v>16.89464028615451</v>
       </c>
       <c r="L12">
-        <v>7.41213511357985</v>
+        <v>11.98764457236281</v>
       </c>
       <c r="M12">
-        <v>12.85455375346909</v>
+        <v>18.28370187517219</v>
       </c>
       <c r="N12">
-        <v>16.17204936246561</v>
+        <v>25.10702288990361</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.80659093886577</v>
+        <v>19.15101405264141</v>
       </c>
       <c r="C13">
-        <v>9.762931179349744</v>
+        <v>6.461591468143142</v>
       </c>
       <c r="D13">
-        <v>2.56693015114535</v>
+        <v>4.828356532322752</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.73714347768967</v>
+        <v>50.82301243235917</v>
       </c>
       <c r="G13">
-        <v>2.125737586901153</v>
+        <v>3.762062914288947</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>25.8358423826806</v>
+        <v>36.61671816226966</v>
       </c>
       <c r="J13">
-        <v>5.881198812625143</v>
+        <v>10.16419416400776</v>
       </c>
       <c r="K13">
-        <v>15.81726725502286</v>
+        <v>16.88836019306467</v>
       </c>
       <c r="L13">
-        <v>7.407198903505819</v>
+        <v>11.98804965138712</v>
       </c>
       <c r="M13">
-        <v>12.83644856271696</v>
+        <v>18.28264527142086</v>
       </c>
       <c r="N13">
-        <v>16.18205524189514</v>
+        <v>25.10980652516537</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.65985908017746</v>
+        <v>19.12279450933703</v>
       </c>
       <c r="C14">
-        <v>9.669321586636487</v>
+        <v>6.431466444736128</v>
       </c>
       <c r="D14">
-        <v>2.554685370317113</v>
+        <v>4.827986519620381</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.6097536421731</v>
+        <v>50.81690308490207</v>
       </c>
       <c r="G14">
-        <v>2.127215201310432</v>
+        <v>3.762543247605388</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>25.79387191367111</v>
+        <v>36.62089848632338</v>
       </c>
       <c r="J14">
-        <v>5.887630587892718</v>
+        <v>10.16643297020011</v>
       </c>
       <c r="K14">
-        <v>15.69942927206137</v>
+        <v>16.86795243687737</v>
       </c>
       <c r="L14">
-        <v>7.391174557400366</v>
+        <v>11.98940665513311</v>
       </c>
       <c r="M14">
-        <v>12.77743324266508</v>
+        <v>18.27927008810958</v>
       </c>
       <c r="N14">
-        <v>16.2148040546996</v>
+        <v>25.11893294787354</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.56966868639213</v>
+        <v>19.10556844428712</v>
       </c>
       <c r="C15">
-        <v>9.611691115637539</v>
+        <v>6.412976143196475</v>
       </c>
       <c r="D15">
-        <v>2.547177217676714</v>
+        <v>4.827768042074733</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.53217512953564</v>
+        <v>50.81333063627693</v>
       </c>
       <c r="G15">
-        <v>2.128121883894139</v>
+        <v>3.762839169446684</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>25.76852374253302</v>
+        <v>36.62356398066255</v>
       </c>
       <c r="J15">
-        <v>5.891583360821098</v>
+        <v>10.16781305557847</v>
       </c>
       <c r="K15">
-        <v>15.62704283322828</v>
+        <v>16.85550855022571</v>
       </c>
       <c r="L15">
-        <v>7.381415758281324</v>
+        <v>11.99026549764331</v>
       </c>
       <c r="M15">
-        <v>12.741308137461</v>
+        <v>18.2772570219231</v>
       </c>
       <c r="N15">
-        <v>16.23495349917721</v>
+        <v>25.1245603331035</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.04806689875719</v>
+        <v>19.00778309378176</v>
       </c>
       <c r="C16">
-        <v>9.276908225493685</v>
+        <v>6.306468731731306</v>
       </c>
       <c r="D16">
-        <v>2.504033946329597</v>
+        <v>4.826641621168816</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.09447352901761</v>
+        <v>50.79546236134672</v>
       </c>
       <c r="G16">
-        <v>2.133343514531666</v>
+        <v>3.764561144645112</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>25.62868702476438</v>
+        <v>36.64044709333723</v>
       </c>
       <c r="J16">
-        <v>5.914439075395872</v>
+        <v>10.17585613845533</v>
       </c>
       <c r="K16">
-        <v>15.20908717537995</v>
+        <v>16.78507785691178</v>
       </c>
       <c r="L16">
-        <v>7.3263566957866</v>
+        <v>11.99561127037818</v>
       </c>
       <c r="M16">
-        <v>12.53468020342253</v>
+        <v>18.26655599295608</v>
       </c>
       <c r="N16">
-        <v>16.35178283021297</v>
+        <v>25.15737898054278</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72388623183454</v>
+        <v>18.9486493733734</v>
       </c>
       <c r="C17">
-        <v>9.067436062832094</v>
+        <v>6.240678995669446</v>
       </c>
       <c r="D17">
-        <v>2.477466951275401</v>
+        <v>4.826063117750845</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.83203509326204</v>
+        <v>50.786827253786</v>
       </c>
       <c r="G17">
-        <v>2.136571165658041</v>
+        <v>3.765640926296165</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>25.54764026561436</v>
+        <v>36.65223936457991</v>
       </c>
       <c r="J17">
-        <v>5.928645306477904</v>
+        <v>10.18091046010093</v>
       </c>
       <c r="K17">
-        <v>14.94993337243369</v>
+        <v>16.74267232162036</v>
       </c>
       <c r="L17">
-        <v>7.29334875235616</v>
+        <v>11.999269654353</v>
       </c>
       <c r="M17">
-        <v>12.40830426256082</v>
+        <v>18.26073879596851</v>
       </c>
       <c r="N17">
-        <v>16.42465190339773</v>
+        <v>25.17802154503743</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.53590768542188</v>
+        <v>18.9149607675836</v>
       </c>
       <c r="C18">
-        <v>8.945427531117646</v>
+        <v>6.20268795136003</v>
       </c>
       <c r="D18">
-        <v>2.462151597694156</v>
+        <v>4.825771907798364</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.68330061511656</v>
+        <v>50.78271660909483</v>
       </c>
       <c r="G18">
-        <v>2.138437084580067</v>
+        <v>3.766270612114593</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>25.50272609082093</v>
+        <v>36.65954929487717</v>
       </c>
       <c r="J18">
-        <v>5.936885495694409</v>
+        <v>10.18386182612969</v>
       </c>
       <c r="K18">
-        <v>14.79988596177135</v>
+        <v>16.71858254767861</v>
       </c>
       <c r="L18">
-        <v>7.274645098472717</v>
+        <v>12.00151330688167</v>
       </c>
       <c r="M18">
-        <v>12.33577189991241</v>
+        <v>18.25766854203172</v>
       </c>
       <c r="N18">
-        <v>16.46699851151849</v>
+        <v>25.19008197215335</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.47200311736194</v>
+        <v>18.90361084954938</v>
       </c>
       <c r="C19">
-        <v>8.903853536703828</v>
+        <v>6.189800462351052</v>
       </c>
       <c r="D19">
-        <v>2.456960333990033</v>
+        <v>4.825680458748272</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.63331991214589</v>
+        <v>50.78147193285684</v>
       </c>
       <c r="G19">
-        <v>2.139070524361116</v>
+        <v>3.766485296226667</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>25.4878074777594</v>
+        <v>36.66211487457349</v>
       </c>
       <c r="J19">
-        <v>5.939687464690405</v>
+        <v>10.18486871801346</v>
       </c>
       <c r="K19">
-        <v>14.74891500130043</v>
+        <v>16.71047840522636</v>
       </c>
       <c r="L19">
-        <v>7.268360646547379</v>
+        <v>12.00229693704928</v>
       </c>
       <c r="M19">
-        <v>12.31124190785669</v>
+        <v>18.25667643380852</v>
       </c>
       <c r="N19">
-        <v>16.48141039506607</v>
+        <v>25.19419762307149</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.75855354528945</v>
+        <v>18.95491098660992</v>
       </c>
       <c r="C20">
-        <v>9.089892164438563</v>
+        <v>6.247698353595106</v>
       </c>
       <c r="D20">
-        <v>2.480298696445309</v>
+        <v>4.826120406264377</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.85974260976136</v>
+        <v>50.78765790097417</v>
       </c>
       <c r="G20">
-        <v>2.136226608947036</v>
+        <v>3.765525089654771</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>25.556090816192</v>
+        <v>36.65092947935122</v>
       </c>
       <c r="J20">
-        <v>5.927125898812352</v>
+        <v>10.18036784105486</v>
       </c>
       <c r="K20">
-        <v>14.97762364208803</v>
+        <v>16.74715547421449</v>
       </c>
       <c r="L20">
-        <v>7.296833334226875</v>
+        <v>11.99886578518133</v>
       </c>
       <c r="M20">
-        <v>12.42174142465729</v>
+        <v>18.26132953876912</v>
       </c>
       <c r="N20">
-        <v>16.41684979451385</v>
+        <v>25.17580472059513</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.7030230730313</v>
+        <v>19.13107098618093</v>
       </c>
       <c r="C21">
-        <v>9.696877696628867</v>
+        <v>6.440322861484907</v>
       </c>
       <c r="D21">
-        <v>2.55828360720306</v>
+        <v>4.828093500573131</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.64707692317694</v>
+        <v>50.81866218960221</v>
       </c>
       <c r="G21">
-        <v>2.126780859543801</v>
+        <v>3.762401807117087</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>25.80612441821362</v>
+        <v>36.61964875764502</v>
       </c>
       <c r="J21">
-        <v>5.885738691178039</v>
+        <v>10.16577355519981</v>
       </c>
       <c r="K21">
-        <v>15.73408442314439</v>
+        <v>16.87393496072238</v>
       </c>
       <c r="L21">
-        <v>7.395869499832895</v>
+        <v>11.98900231153374</v>
       </c>
       <c r="M21">
-        <v>12.79476264930241</v>
+        <v>18.28025014430774</v>
       </c>
       <c r="N21">
-        <v>16.20516616939207</v>
+        <v>25.11624454731502</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.30634064570948</v>
+        <v>19.24887816029264</v>
       </c>
       <c r="C22">
-        <v>10.08045538059811</v>
+        <v>6.564559925659307</v>
       </c>
       <c r="D22">
-        <v>2.608904043514009</v>
+        <v>4.829749004448243</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.18179605949572</v>
+        <v>50.84652380476654</v>
       </c>
       <c r="G22">
-        <v>2.120680574271812</v>
+        <v>3.760436880560986</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>25.98553946587874</v>
+        <v>36.60390113324981</v>
       </c>
       <c r="J22">
-        <v>5.859280346380817</v>
+        <v>10.15662732737826</v>
       </c>
       <c r="K22">
-        <v>16.21925306978082</v>
+        <v>16.95933639069894</v>
       </c>
       <c r="L22">
-        <v>7.463124926792579</v>
+        <v>11.98379352367909</v>
       </c>
       <c r="M22">
-        <v>13.03964314284817</v>
+        <v>18.2950501279905</v>
       </c>
       <c r="N22">
-        <v>16.07082330947628</v>
+        <v>25.07898342842244</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98563024704562</v>
+        <v>19.18576741503964</v>
       </c>
       <c r="C23">
-        <v>9.876910004576986</v>
+        <v>6.498418108270686</v>
       </c>
       <c r="D23">
-        <v>2.581920153402494</v>
+        <v>4.828832133348986</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.89453994210873</v>
+        <v>50.83095961011037</v>
       </c>
       <c r="G23">
-        <v>2.123930295062763</v>
+        <v>3.76147863859841</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>25.88827612583284</v>
+        <v>36.61187626572306</v>
       </c>
       <c r="J23">
-        <v>5.873348882851913</v>
+        <v>10.16147307579376</v>
       </c>
       <c r="K23">
-        <v>15.9611688214217</v>
+        <v>16.91352994833263</v>
       </c>
       <c r="L23">
-        <v>7.426996837533989</v>
+        <v>11.98646052572514</v>
       </c>
       <c r="M23">
-        <v>12.90885912095147</v>
+        <v>18.28692939565597</v>
       </c>
       <c r="N23">
-        <v>16.14215072419424</v>
+        <v>25.09871822195955</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.74288543966943</v>
+        <v>18.95207914909926</v>
       </c>
       <c r="C24">
-        <v>9.079744687865487</v>
+        <v>6.244525420486765</v>
       </c>
       <c r="D24">
-        <v>2.479018593656337</v>
+        <v>4.826094377214196</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.8472093654969</v>
+        <v>50.78727970550809</v>
       </c>
       <c r="G24">
-        <v>2.136382350835734</v>
+        <v>3.765577431655421</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>25.55226509664799</v>
+        <v>36.65152002623414</v>
       </c>
       <c r="J24">
-        <v>5.927812595872122</v>
+        <v>10.18061301715784</v>
       </c>
       <c r="K24">
-        <v>14.9651081565221</v>
+        <v>16.74512773693296</v>
       </c>
       <c r="L24">
-        <v>7.295257104491458</v>
+        <v>11.99904793705952</v>
       </c>
       <c r="M24">
-        <v>12.41566609754069</v>
+        <v>18.26106160982589</v>
       </c>
       <c r="N24">
-        <v>16.42037571772413</v>
+        <v>25.17680634644651</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.34486397016122</v>
+        <v>18.71248992512229</v>
       </c>
       <c r="C25">
-        <v>8.161309570412129</v>
+        <v>5.96512571965324</v>
       </c>
       <c r="D25">
-        <v>2.36673680254307</v>
+        <v>4.824731131963747</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.80186915873928</v>
+        <v>50.77289799350395</v>
       </c>
       <c r="G25">
-        <v>2.150181047973075</v>
+        <v>3.770328653314268</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.25440343486586</v>
+        <v>36.71444056728298</v>
       </c>
       <c r="J25">
-        <v>5.989217082775826</v>
+        <v>10.20295177228663</v>
       </c>
       <c r="K25">
-        <v>13.85336258850221</v>
+        <v>16.57504870716839</v>
       </c>
       <c r="L25">
-        <v>7.163911054656949</v>
+        <v>12.0179588811832</v>
       </c>
       <c r="M25">
-        <v>11.88986609756092</v>
+        <v>18.24370663229185</v>
       </c>
       <c r="N25">
-        <v>16.73704154622028</v>
+        <v>25.26820305971025</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.54781195257897</v>
+        <v>15.26993247356225</v>
       </c>
       <c r="C2">
-        <v>5.756501084900677</v>
+        <v>7.43233185791542</v>
       </c>
       <c r="D2">
-        <v>4.825113339260736</v>
+        <v>2.283261386927911</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>50.79052207779705</v>
+        <v>36.10223917299169</v>
       </c>
       <c r="G2">
-        <v>3.774114025315235</v>
+        <v>2.160712330974952</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>36.77808963134115</v>
+        <v>25.0860868714573</v>
       </c>
       <c r="J2">
-        <v>10.22087035177882</v>
+        <v>6.036847313353248</v>
       </c>
       <c r="K2">
-        <v>16.46040809085815</v>
+        <v>13.00623692715903</v>
       </c>
       <c r="L2">
-        <v>12.03649010089267</v>
+        <v>7.076314332041303</v>
       </c>
       <c r="M2">
-        <v>18.24008353545074</v>
+        <v>11.50989858334712</v>
       </c>
       <c r="N2">
-        <v>25.34169354331657</v>
+        <v>16.98394027806563</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.44399694080811</v>
+        <v>14.51605572165621</v>
       </c>
       <c r="C3">
-        <v>5.61434756660679</v>
+        <v>6.904314789562753</v>
       </c>
       <c r="D3">
-        <v>4.826246063661417</v>
+        <v>2.226397361807166</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>50.8200751546264</v>
+        <v>35.67046489432398</v>
       </c>
       <c r="G3">
-        <v>3.776860116866707</v>
+        <v>2.168106254122231</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>36.8320167559992</v>
+        <v>25.00157552340477</v>
       </c>
       <c r="J3">
-        <v>10.23393861403654</v>
+        <v>6.070697773151776</v>
       </c>
       <c r="K3">
-        <v>16.38961486196935</v>
+        <v>12.41697014039576</v>
       </c>
       <c r="L3">
-        <v>12.05193218187985</v>
+        <v>7.022559806673502</v>
       </c>
       <c r="M3">
-        <v>18.24337473424515</v>
+        <v>11.25794719123234</v>
       </c>
       <c r="N3">
-        <v>25.39538001182678</v>
+        <v>17.15966115798807</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.38424289708379</v>
+        <v>14.0420369685178</v>
       </c>
       <c r="C4">
-        <v>5.527064344401918</v>
+        <v>6.563017200025266</v>
       </c>
       <c r="D4">
-        <v>4.827375544967794</v>
+        <v>2.191423322307548</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>50.84690472958791</v>
+        <v>35.42576805957678</v>
       </c>
       <c r="G4">
-        <v>3.778635901800782</v>
+        <v>2.172780435386105</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>36.87044569822333</v>
+        <v>24.96352120394596</v>
       </c>
       <c r="J4">
-        <v>10.24242108037399</v>
+        <v>6.092276432949152</v>
       </c>
       <c r="K4">
-        <v>16.34964120505318</v>
+        <v>12.04884353702105</v>
       </c>
       <c r="L4">
-        <v>12.06283884264002</v>
+        <v>6.992293811923665</v>
       </c>
       <c r="M4">
-        <v>18.24824028502438</v>
+        <v>11.10637780478768</v>
       </c>
       <c r="N4">
-        <v>25.43026362334662</v>
+        <v>17.27165388436439</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.36091688448739</v>
+        <v>13.84632404780068</v>
       </c>
       <c r="C5">
-        <v>5.491555229793748</v>
+        <v>6.419591861339091</v>
       </c>
       <c r="D5">
-        <v>4.827945417212656</v>
+        <v>2.177170484566418</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>50.86002118210007</v>
+        <v>35.3311083190179</v>
       </c>
       <c r="G5">
-        <v>3.77938217309211</v>
+        <v>2.174720022140884</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>36.88744209997629</v>
+        <v>24.95138329233659</v>
       </c>
       <c r="J5">
-        <v>10.24599338577286</v>
+        <v>6.101272359703837</v>
       </c>
       <c r="K5">
-        <v>16.33424307662247</v>
+        <v>11.8974489582365</v>
       </c>
       <c r="L5">
-        <v>12.06764221697217</v>
+        <v>6.980644632775178</v>
       </c>
       <c r="M5">
-        <v>18.25093986177788</v>
+        <v>11.04545986937667</v>
       </c>
       <c r="N5">
-        <v>25.44496248604809</v>
+        <v>17.31831752175148</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.3571060695584</v>
+        <v>13.81368051430861</v>
       </c>
       <c r="C6">
-        <v>5.485664339434453</v>
+        <v>6.395512552940417</v>
       </c>
       <c r="D6">
-        <v>4.82804667712857</v>
+        <v>2.174804211977324</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>50.86233099152096</v>
+        <v>35.31569309654851</v>
       </c>
       <c r="G6">
-        <v>3.779507459552904</v>
+        <v>2.175044221869891</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>36.89034502112307</v>
+        <v>24.94956810680974</v>
       </c>
       <c r="J6">
-        <v>10.24659355816614</v>
+        <v>6.102778431191693</v>
       </c>
       <c r="K6">
-        <v>16.33174042696227</v>
+        <v>11.87223330585406</v>
       </c>
       <c r="L6">
-        <v>12.06846149820934</v>
+        <v>6.978751491177306</v>
       </c>
       <c r="M6">
-        <v>18.25143145791498</v>
+        <v>11.03539747583843</v>
       </c>
       <c r="N6">
-        <v>25.44743244540883</v>
+        <v>17.3261278075275</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.3839241403174</v>
+        <v>14.03940745965166</v>
       </c>
       <c r="C7">
-        <v>5.526585135029097</v>
+        <v>6.561100562258379</v>
       </c>
       <c r="D7">
-        <v>4.827382786074887</v>
+        <v>2.191231086440639</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>50.84707278420201</v>
+        <v>35.42447108108673</v>
       </c>
       <c r="G7">
-        <v>3.778645874570322</v>
+        <v>2.172806450991931</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>36.87066950830003</v>
+        <v>24.96334400954165</v>
       </c>
       <c r="J7">
-        <v>10.24246878909662</v>
+        <v>6.092396931943</v>
       </c>
       <c r="K7">
-        <v>16.34942991478203</v>
+        <v>12.0468070680378</v>
       </c>
       <c r="L7">
-        <v>12.06290216919429</v>
+        <v>6.992133942042736</v>
       </c>
       <c r="M7">
-        <v>18.24827378827466</v>
+        <v>11.10555273099489</v>
       </c>
       <c r="N7">
-        <v>25.43045989869753</v>
+        <v>17.27227905928725</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.51120186558571</v>
+        <v>15.01244608495369</v>
       </c>
       <c r="C8">
-        <v>5.707521790189783</v>
+        <v>7.253790919221942</v>
       </c>
       <c r="D8">
-        <v>4.825414114465809</v>
+        <v>2.263675179309291</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>50.79890956102206</v>
+        <v>35.94908246095349</v>
       </c>
       <c r="G8">
-        <v>3.775042311348194</v>
+        <v>2.163234537504274</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>36.79557961080256</v>
+        <v>25.05400969998512</v>
       </c>
       <c r="J8">
-        <v>10.22528133030533</v>
+        <v>6.048355747119429</v>
       </c>
       <c r="K8">
-        <v>16.43528158593326</v>
+        <v>12.80448379393632</v>
       </c>
       <c r="L8">
-        <v>12.04151901846414</v>
+        <v>7.057208739027206</v>
       </c>
       <c r="M8">
-        <v>18.2406288750195</v>
+        <v>11.42241247623377</v>
       </c>
       <c r="N8">
-        <v>25.35980660277967</v>
+        <v>17.0436745127536</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.79143894349279</v>
+        <v>16.8231919258569</v>
       </c>
       <c r="C9">
-        <v>6.059824432035711</v>
+        <v>8.478726840237169</v>
       </c>
       <c r="D9">
-        <v>4.82497628449364</v>
+        <v>2.404707749076128</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>50.77336270335538</v>
+        <v>37.14294432725051</v>
       </c>
       <c r="G9">
-        <v>3.76868381995655</v>
+        <v>2.145478774737466</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>36.69055367077245</v>
+        <v>25.3465153690759</v>
       </c>
       <c r="J9">
-        <v>10.19519943746473</v>
+        <v>5.968165824192202</v>
       </c>
       <c r="K9">
-        <v>16.63073672170754</v>
+        <v>14.23257945079007</v>
       </c>
       <c r="L9">
-        <v>12.01087432845407</v>
+        <v>7.206730453920191</v>
       </c>
       <c r="M9">
-        <v>18.24813574313952</v>
+        <v>12.06600254665866</v>
       </c>
       <c r="N9">
-        <v>25.23645568939228</v>
+        <v>16.62820963609139</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.01457381582218</v>
+        <v>18.08485063337436</v>
       </c>
       <c r="C10">
-        <v>6.313954288845719</v>
+        <v>9.300605244256856</v>
       </c>
       <c r="D10">
-        <v>4.826713246922894</v>
+        <v>2.507060565975971</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.79656360974499</v>
+        <v>38.12472092162991</v>
       </c>
       <c r="G10">
-        <v>3.764439100990804</v>
+        <v>2.132976462326577</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>36.63917297148806</v>
+        <v>25.63816847944797</v>
       </c>
       <c r="J10">
-        <v>10.17528539455819</v>
+        <v>5.912827331303382</v>
       </c>
       <c r="K10">
-        <v>16.78995692874286</v>
+        <v>15.23852271847264</v>
       </c>
       <c r="L10">
-        <v>11.99521270497585</v>
+        <v>7.330161363918637</v>
       </c>
       <c r="M10">
-        <v>18.26725706013069</v>
+        <v>12.54912058641711</v>
       </c>
       <c r="N10">
-        <v>25.15504889702789</v>
+        <v>16.34352722701479</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.11949682704144</v>
+        <v>18.6426304463146</v>
       </c>
       <c r="C11">
-        <v>6.4279327512824</v>
+        <v>9.658318233692645</v>
       </c>
       <c r="D11">
-        <v>4.827944255321666</v>
+        <v>2.553250045885276</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.81620985513104</v>
+        <v>38.59489152155215</v>
       </c>
       <c r="G11">
-        <v>3.762599735815855</v>
+        <v>2.127388490742782</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>36.62140198686402</v>
+        <v>25.7890032954707</v>
       </c>
       <c r="J11">
-        <v>10.1666963654666</v>
+        <v>5.888385698225437</v>
       </c>
       <c r="K11">
-        <v>16.86556942393766</v>
+        <v>15.68559903406652</v>
       </c>
       <c r="L11">
-        <v>11.98956925236686</v>
+        <v>7.389305022721182</v>
       </c>
       <c r="M11">
-        <v>18.27888190372107</v>
+        <v>12.7705235995317</v>
       </c>
       <c r="N11">
-        <v>25.12000687010049</v>
+        <v>16.21865192971902</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.15969053492707</v>
+        <v>18.85145872787587</v>
       </c>
       <c r="C12">
-        <v>6.470813403049738</v>
+        <v>9.791519094723805</v>
       </c>
       <c r="D12">
-        <v>4.828473245223347</v>
+        <v>2.570681645796148</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.82495345556682</v>
+        <v>38.77638616832247</v>
       </c>
       <c r="G12">
-        <v>3.761916307179968</v>
+        <v>2.125285126598739</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>36.61547820222391</v>
+        <v>25.84885650446273</v>
       </c>
       <c r="J12">
-        <v>10.16351116021462</v>
+        <v>5.87923182176306</v>
       </c>
       <c r="K12">
-        <v>16.89464028615451</v>
+        <v>15.85331734131188</v>
       </c>
       <c r="L12">
-        <v>11.98764457236281</v>
+        <v>7.412135113579872</v>
       </c>
       <c r="M12">
-        <v>18.28370187517219</v>
+        <v>12.85455375346915</v>
       </c>
       <c r="N12">
-        <v>25.10702288990361</v>
+        <v>16.17204936246575</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.15101405264141</v>
+        <v>18.80659093886577</v>
       </c>
       <c r="C13">
-        <v>6.461591468143142</v>
+        <v>9.762931179349662</v>
       </c>
       <c r="D13">
-        <v>4.828356532322752</v>
+        <v>2.566930151145232</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.82301243235917</v>
+        <v>38.73714347768968</v>
       </c>
       <c r="G13">
-        <v>3.762062914288947</v>
+        <v>2.125737586900891</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>36.61671816226966</v>
+        <v>25.83584238268067</v>
       </c>
       <c r="J13">
-        <v>10.16419416400776</v>
+        <v>5.88119881262511</v>
       </c>
       <c r="K13">
-        <v>16.88836019306467</v>
+        <v>15.81726725502287</v>
       </c>
       <c r="L13">
-        <v>11.98804965138712</v>
+        <v>7.407198903505774</v>
       </c>
       <c r="M13">
-        <v>18.28264527142086</v>
+        <v>12.83644856271695</v>
       </c>
       <c r="N13">
-        <v>25.10980652516537</v>
+        <v>16.18205524189519</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.12279450933703</v>
+        <v>18.65985908017746</v>
       </c>
       <c r="C14">
-        <v>6.431466444736128</v>
+        <v>9.669321586636435</v>
       </c>
       <c r="D14">
-        <v>4.827986519620381</v>
+        <v>2.554685370317185</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.81690308490207</v>
+        <v>38.60975364217313</v>
       </c>
       <c r="G14">
-        <v>3.762543247605388</v>
+        <v>2.127215201310297</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>36.62089848632338</v>
+        <v>25.79387191367109</v>
       </c>
       <c r="J14">
-        <v>10.16643297020011</v>
+        <v>5.88763058789269</v>
       </c>
       <c r="K14">
-        <v>16.86795243687737</v>
+        <v>15.69942927206137</v>
       </c>
       <c r="L14">
-        <v>11.98940665513311</v>
+        <v>7.391174557400365</v>
       </c>
       <c r="M14">
-        <v>18.27927008810958</v>
+        <v>12.77743324266507</v>
       </c>
       <c r="N14">
-        <v>25.11893294787354</v>
+        <v>16.21480405469961</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.10556844428712</v>
+        <v>18.56966868639218</v>
       </c>
       <c r="C15">
-        <v>6.412976143196475</v>
+        <v>9.611691115637587</v>
       </c>
       <c r="D15">
-        <v>4.827768042074733</v>
+        <v>2.54717721767657</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.81333063627693</v>
+        <v>38.53217512953591</v>
       </c>
       <c r="G15">
-        <v>3.762839169446684</v>
+        <v>2.128121883894139</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>36.62356398066255</v>
+        <v>25.76852374253337</v>
       </c>
       <c r="J15">
-        <v>10.16781305557847</v>
+        <v>5.891583360821163</v>
       </c>
       <c r="K15">
-        <v>16.85550855022571</v>
+        <v>15.62704283322832</v>
       </c>
       <c r="L15">
-        <v>11.99026549764331</v>
+        <v>7.381415758281292</v>
       </c>
       <c r="M15">
-        <v>18.2772570219231</v>
+        <v>12.74130813746104</v>
       </c>
       <c r="N15">
-        <v>25.1245603331035</v>
+        <v>16.23495349917744</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.00778309378176</v>
+        <v>18.04806689875721</v>
       </c>
       <c r="C16">
-        <v>6.306468731731306</v>
+        <v>9.276908225493694</v>
       </c>
       <c r="D16">
-        <v>4.826641621168816</v>
+        <v>2.504033946329777</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.79546236134672</v>
+        <v>38.09447352901775</v>
       </c>
       <c r="G16">
-        <v>3.764561144645112</v>
+        <v>2.133343514531666</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>36.64044709333723</v>
+        <v>25.62868702476443</v>
       </c>
       <c r="J16">
-        <v>10.17585613845533</v>
+        <v>5.914439075395812</v>
       </c>
       <c r="K16">
-        <v>16.78507785691178</v>
+        <v>15.20908717537995</v>
       </c>
       <c r="L16">
-        <v>11.99561127037818</v>
+        <v>7.326356695786604</v>
       </c>
       <c r="M16">
-        <v>18.26655599295608</v>
+        <v>12.53468020342253</v>
       </c>
       <c r="N16">
-        <v>25.15737898054278</v>
+        <v>16.35178283021303</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.9486493733734</v>
+        <v>17.72388623183456</v>
       </c>
       <c r="C17">
-        <v>6.240678995669446</v>
+        <v>9.067436062832041</v>
       </c>
       <c r="D17">
-        <v>4.826063117750845</v>
+        <v>2.477466951275396</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.786827253786</v>
+        <v>37.83203509326214</v>
       </c>
       <c r="G17">
-        <v>3.765640926296165</v>
+        <v>2.136571165658307</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>36.65223936457991</v>
+        <v>25.54764026561439</v>
       </c>
       <c r="J17">
-        <v>10.18091046010093</v>
+        <v>5.928645306477937</v>
       </c>
       <c r="K17">
-        <v>16.74267232162036</v>
+        <v>14.9499333724337</v>
       </c>
       <c r="L17">
-        <v>11.999269654353</v>
+        <v>7.293348752356208</v>
       </c>
       <c r="M17">
-        <v>18.26073879596851</v>
+        <v>12.40830426256086</v>
       </c>
       <c r="N17">
-        <v>25.17802154503743</v>
+        <v>16.42465190339771</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.9149607675836</v>
+        <v>17.53590768542192</v>
       </c>
       <c r="C18">
-        <v>6.20268795136003</v>
+        <v>8.94542753111776</v>
       </c>
       <c r="D18">
-        <v>4.825771907798364</v>
+        <v>2.462151597693978</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.78271660909483</v>
+        <v>37.68330061511652</v>
       </c>
       <c r="G18">
-        <v>3.766270612114593</v>
+        <v>2.138437084580337</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>36.65954929487717</v>
+        <v>25.50272609082101</v>
       </c>
       <c r="J18">
-        <v>10.18386182612969</v>
+        <v>5.936885495694475</v>
       </c>
       <c r="K18">
-        <v>16.71858254767861</v>
+        <v>14.79988596177136</v>
       </c>
       <c r="L18">
-        <v>12.00151330688167</v>
+        <v>7.274645098472646</v>
       </c>
       <c r="M18">
-        <v>18.25766854203172</v>
+        <v>12.33577189991243</v>
       </c>
       <c r="N18">
-        <v>25.19008197215335</v>
+        <v>16.46699851151851</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.90361084954938</v>
+        <v>17.47200311736197</v>
       </c>
       <c r="C19">
-        <v>6.189800462351052</v>
+        <v>8.903853536703805</v>
       </c>
       <c r="D19">
-        <v>4.825680458748272</v>
+        <v>2.456960333990033</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.78147193285684</v>
+        <v>37.63331991214591</v>
       </c>
       <c r="G19">
-        <v>3.766485296226667</v>
+        <v>2.139070524360982</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>36.66211487457349</v>
+        <v>25.48780747775945</v>
       </c>
       <c r="J19">
-        <v>10.18486871801346</v>
+        <v>5.939687464690473</v>
       </c>
       <c r="K19">
-        <v>16.71047840522636</v>
+        <v>14.74891500130044</v>
       </c>
       <c r="L19">
-        <v>12.00229693704928</v>
+        <v>7.268360646547449</v>
       </c>
       <c r="M19">
-        <v>18.25667643380852</v>
+        <v>12.31124190785673</v>
       </c>
       <c r="N19">
-        <v>25.19419762307149</v>
+        <v>16.48141039506605</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.95491098660992</v>
+        <v>17.75855354528944</v>
       </c>
       <c r="C20">
-        <v>6.247698353595106</v>
+        <v>9.089892164438451</v>
       </c>
       <c r="D20">
-        <v>4.826120406264377</v>
+        <v>2.480298696445309</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.78765790097417</v>
+        <v>37.85974260976136</v>
       </c>
       <c r="G20">
-        <v>3.765525089654771</v>
+        <v>2.136226608947039</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>36.65092947935122</v>
+        <v>25.55609081619199</v>
       </c>
       <c r="J20">
-        <v>10.18036784105486</v>
+        <v>5.927125898812418</v>
       </c>
       <c r="K20">
-        <v>16.74715547421449</v>
+        <v>14.97762364208802</v>
       </c>
       <c r="L20">
-        <v>11.99886578518133</v>
+        <v>7.296833334226865</v>
       </c>
       <c r="M20">
-        <v>18.26132953876912</v>
+        <v>12.42174142465727</v>
       </c>
       <c r="N20">
-        <v>25.17580472059513</v>
+        <v>16.41684979451385</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.13107098618093</v>
+        <v>18.70302307303133</v>
       </c>
       <c r="C21">
-        <v>6.440322861484907</v>
+        <v>9.696877696628958</v>
       </c>
       <c r="D21">
-        <v>4.828093500573131</v>
+        <v>2.558283607203048</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.81866218960221</v>
+        <v>38.64707692317683</v>
       </c>
       <c r="G21">
-        <v>3.762401807117087</v>
+        <v>2.126780859543801</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>36.61964875764502</v>
+        <v>25.80612441821359</v>
       </c>
       <c r="J21">
-        <v>10.16577355519981</v>
+        <v>5.885738691178136</v>
       </c>
       <c r="K21">
-        <v>16.87393496072238</v>
+        <v>15.73408442314438</v>
       </c>
       <c r="L21">
-        <v>11.98900231153374</v>
+        <v>7.395869499832928</v>
       </c>
       <c r="M21">
-        <v>18.28025014430774</v>
+        <v>12.7947626493024</v>
       </c>
       <c r="N21">
-        <v>25.11624454731502</v>
+        <v>16.20516616939204</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.24887816029264</v>
+        <v>19.30634064570952</v>
       </c>
       <c r="C22">
-        <v>6.564559925659307</v>
+        <v>10.08045538059813</v>
       </c>
       <c r="D22">
-        <v>4.829749004448243</v>
+        <v>2.608904043513926</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.84652380476654</v>
+        <v>39.18179605949568</v>
       </c>
       <c r="G22">
-        <v>3.760436880560986</v>
+        <v>2.120680574271415</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>36.60390113324981</v>
+        <v>25.98553946587875</v>
       </c>
       <c r="J22">
-        <v>10.15662732737826</v>
+        <v>5.859280346380953</v>
       </c>
       <c r="K22">
-        <v>16.95933639069894</v>
+        <v>16.21925306978082</v>
       </c>
       <c r="L22">
-        <v>11.98379352367909</v>
+        <v>7.463124926792608</v>
       </c>
       <c r="M22">
-        <v>18.2950501279905</v>
+        <v>13.03964314284818</v>
       </c>
       <c r="N22">
-        <v>25.07898342842244</v>
+        <v>16.07082330947626</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.18576741503964</v>
+        <v>18.98563024704563</v>
       </c>
       <c r="C23">
-        <v>6.498418108270686</v>
+        <v>9.876910004577077</v>
       </c>
       <c r="D23">
-        <v>4.828832133348986</v>
+        <v>2.581920153402443</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.83095961011037</v>
+        <v>38.8945399421086</v>
       </c>
       <c r="G23">
-        <v>3.76147863859841</v>
+        <v>2.123930295062632</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>36.61187626572306</v>
+        <v>25.88827612583277</v>
       </c>
       <c r="J23">
-        <v>10.16147307579376</v>
+        <v>5.873348882852012</v>
       </c>
       <c r="K23">
-        <v>16.91352994833263</v>
+        <v>15.96116882142169</v>
       </c>
       <c r="L23">
-        <v>11.98646052572514</v>
+        <v>7.426996837534006</v>
       </c>
       <c r="M23">
-        <v>18.28692939565597</v>
+        <v>12.90885912095148</v>
       </c>
       <c r="N23">
-        <v>25.09871822195955</v>
+        <v>16.14215072419418</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.95207914909926</v>
+        <v>17.74288543966948</v>
       </c>
       <c r="C24">
-        <v>6.244525420486765</v>
+        <v>9.079744687865649</v>
       </c>
       <c r="D24">
-        <v>4.826094377214196</v>
+        <v>2.479018593656432</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.78727970550809</v>
+        <v>37.84720936549695</v>
       </c>
       <c r="G24">
-        <v>3.765577431655421</v>
+        <v>2.136382350835603</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>36.65152002623414</v>
+        <v>25.55226509664809</v>
       </c>
       <c r="J24">
-        <v>10.18061301715784</v>
+        <v>5.927812595872091</v>
       </c>
       <c r="K24">
-        <v>16.74512773693296</v>
+        <v>14.96510815652209</v>
       </c>
       <c r="L24">
-        <v>11.99904793705952</v>
+        <v>7.295257104491407</v>
       </c>
       <c r="M24">
-        <v>18.26106160982589</v>
+        <v>12.41566609754071</v>
       </c>
       <c r="N24">
-        <v>25.17680634644651</v>
+        <v>16.42037571772414</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.71248992512229</v>
+        <v>16.34486397016123</v>
       </c>
       <c r="C25">
-        <v>5.96512571965324</v>
+        <v>8.161309570412129</v>
       </c>
       <c r="D25">
-        <v>4.824731131963747</v>
+        <v>2.36673680254291</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>50.77289799350395</v>
+        <v>36.80186915873928</v>
       </c>
       <c r="G25">
-        <v>3.770328653314268</v>
+        <v>2.150181047972941</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>36.71444056728298</v>
+        <v>25.25440343486584</v>
       </c>
       <c r="J25">
-        <v>10.20295177228663</v>
+        <v>5.989217082775761</v>
       </c>
       <c r="K25">
-        <v>16.57504870716839</v>
+        <v>13.85336258850222</v>
       </c>
       <c r="L25">
-        <v>12.0179588811832</v>
+        <v>7.163911054656926</v>
       </c>
       <c r="M25">
-        <v>18.24370663229185</v>
+        <v>11.88986609756088</v>
       </c>
       <c r="N25">
-        <v>25.26820305971025</v>
+        <v>16.73704154622029</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.26993247356225</v>
+        <v>15.6368631114667</v>
       </c>
       <c r="C2">
-        <v>7.43233185791542</v>
+        <v>12.62360553725167</v>
       </c>
       <c r="D2">
-        <v>2.283261386927911</v>
+        <v>4.512890448173946</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>36.10223917299169</v>
+        <v>15.53136511441507</v>
       </c>
       <c r="G2">
-        <v>2.160712330974952</v>
+        <v>18.56997476652882</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.020740064897745</v>
       </c>
       <c r="I2">
-        <v>25.0860868714573</v>
+        <v>3.575042536934064</v>
       </c>
       <c r="J2">
-        <v>6.036847313353248</v>
+        <v>7.400853007317338</v>
       </c>
       <c r="K2">
-        <v>13.00623692715903</v>
+        <v>11.15683952569722</v>
       </c>
       <c r="L2">
-        <v>7.076314332041303</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>11.50989858334712</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>16.98394027806563</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.50087399396055</v>
+      </c>
+      <c r="P2">
+        <v>11.66189675185569</v>
+      </c>
+      <c r="Q2">
+        <v>11.83515343886785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.51605572165621</v>
+        <v>14.69708026849806</v>
       </c>
       <c r="C3">
-        <v>6.904314789562753</v>
+        <v>12.09086536530427</v>
       </c>
       <c r="D3">
-        <v>2.226397361807166</v>
+        <v>4.291262588803714</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.67046489432398</v>
+        <v>14.99065942777531</v>
       </c>
       <c r="G3">
-        <v>2.168106254122231</v>
+        <v>17.78297651749824</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.791232396990335</v>
       </c>
       <c r="I3">
-        <v>25.00157552340477</v>
+        <v>3.447895170601004</v>
       </c>
       <c r="J3">
-        <v>6.070697773151776</v>
+        <v>7.372485429148666</v>
       </c>
       <c r="K3">
-        <v>12.41697014039576</v>
+        <v>11.21978427525832</v>
       </c>
       <c r="L3">
-        <v>7.022559806673502</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>11.25794719123234</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.15966115798807</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.7188904184211</v>
+      </c>
+      <c r="P3">
+        <v>11.75001765306217</v>
+      </c>
+      <c r="Q3">
+        <v>11.63254218483431</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.0420369685178</v>
+        <v>14.0843753797015</v>
       </c>
       <c r="C4">
-        <v>6.563017200025266</v>
+        <v>11.75237494565041</v>
       </c>
       <c r="D4">
-        <v>2.191423322307548</v>
+        <v>4.149010442726429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.42576805957678</v>
+        <v>14.65706379044672</v>
       </c>
       <c r="G4">
-        <v>2.172780435386105</v>
+        <v>17.29269498721321</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.64607930137731</v>
       </c>
       <c r="I4">
-        <v>24.96352120394596</v>
+        <v>3.367425466530371</v>
       </c>
       <c r="J4">
-        <v>6.092276432949152</v>
+        <v>7.358057582565839</v>
       </c>
       <c r="K4">
-        <v>12.04884353702105</v>
+        <v>11.26273827420887</v>
       </c>
       <c r="L4">
-        <v>6.992293811923665</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.10637780478768</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.27165388436439</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.56533979009974</v>
+      </c>
+      <c r="P4">
+        <v>11.8058605141694</v>
+      </c>
+      <c r="Q4">
+        <v>11.51246918265909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.84632404780068</v>
+        <v>13.82124598778109</v>
       </c>
       <c r="C5">
-        <v>6.419591861339091</v>
+        <v>11.61890401225041</v>
       </c>
       <c r="D5">
-        <v>2.177170484566418</v>
+        <v>4.090803886507621</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.3311083190179</v>
+        <v>14.51485955375598</v>
       </c>
       <c r="G5">
-        <v>2.174720022140884</v>
+        <v>17.08009951454704</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.58579021607158</v>
       </c>
       <c r="I5">
-        <v>24.95138329233659</v>
+        <v>3.334250637719035</v>
       </c>
       <c r="J5">
-        <v>6.101272359703837</v>
+        <v>7.351208045532716</v>
       </c>
       <c r="K5">
-        <v>11.8974489582365</v>
+        <v>11.27704476643496</v>
       </c>
       <c r="L5">
-        <v>6.980644632775178</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.04545986937667</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.31831752175148</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>25.08028074219119</v>
+      </c>
+      <c r="P5">
+        <v>11.82953105710491</v>
+      </c>
+      <c r="Q5">
+        <v>11.460122929458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.81368051430861</v>
+        <v>13.77149039607467</v>
       </c>
       <c r="C6">
-        <v>6.395512552940417</v>
+        <v>11.60543916421079</v>
       </c>
       <c r="D6">
-        <v>2.174804211977324</v>
+        <v>4.082617504762323</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.31569309654851</v>
+        <v>14.48381308877591</v>
       </c>
       <c r="G6">
-        <v>2.175044221869891</v>
+        <v>17.03084446943077</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.575650814941069</v>
       </c>
       <c r="I6">
-        <v>24.94956810680974</v>
+        <v>3.329153342882087</v>
       </c>
       <c r="J6">
-        <v>6.102778431191693</v>
+        <v>7.348026480243806</v>
       </c>
       <c r="K6">
-        <v>11.87223330585406</v>
+        <v>11.27430238487876</v>
       </c>
       <c r="L6">
-        <v>6.978751491177306</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.03539747583843</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.3261278075275</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.99873656708104</v>
+      </c>
+      <c r="P6">
+        <v>11.83408099473894</v>
+      </c>
+      <c r="Q6">
+        <v>11.44595233756686</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.03940745965166</v>
+        <v>14.06609581145492</v>
       </c>
       <c r="C7">
-        <v>6.561100562258379</v>
+        <v>11.77447976228884</v>
       </c>
       <c r="D7">
-        <v>2.191231086440639</v>
+        <v>4.152451225209804</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.42447108108673</v>
+        <v>14.63509205935254</v>
       </c>
       <c r="G7">
-        <v>2.172806450991931</v>
+        <v>17.25248000545876</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.64510377704245</v>
       </c>
       <c r="I7">
-        <v>24.96334400954165</v>
+        <v>3.367956917156636</v>
       </c>
       <c r="J7">
-        <v>6.092396931943</v>
+        <v>7.352269324390535</v>
       </c>
       <c r="K7">
-        <v>12.0468070680378</v>
+        <v>11.24876504448756</v>
       </c>
       <c r="L7">
-        <v>6.992133942042736</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.10555273099489</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.27227905928725</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.55858466497098</v>
+      </c>
+      <c r="P7">
+        <v>11.80785761541804</v>
+      </c>
+      <c r="Q7">
+        <v>11.49669088087829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.01244608495369</v>
+        <v>15.30208516656726</v>
       </c>
       <c r="C8">
-        <v>7.253790919221942</v>
+        <v>12.47258205684875</v>
       </c>
       <c r="D8">
-        <v>2.263675179309291</v>
+        <v>4.443060017241271</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.94908246095349</v>
+        <v>15.31995524835665</v>
       </c>
       <c r="G8">
-        <v>2.163234537504274</v>
+        <v>18.2533489376926</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.94226251750846</v>
       </c>
       <c r="I8">
-        <v>25.05400969998512</v>
+        <v>3.532734493862479</v>
       </c>
       <c r="J8">
-        <v>6.048355747119429</v>
+        <v>7.382966130977528</v>
       </c>
       <c r="K8">
-        <v>12.80448379393632</v>
+        <v>11.15884436158836</v>
       </c>
       <c r="L8">
-        <v>7.057208739027206</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>11.42241247623377</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.0436745127536</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.89846038699995</v>
+      </c>
+      <c r="P8">
+        <v>11.69440189902614</v>
+      </c>
+      <c r="Q8">
+        <v>11.74489425790711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.8231919258569</v>
+        <v>17.4654658637091</v>
       </c>
       <c r="C9">
-        <v>8.478726840237169</v>
+        <v>13.70759097803289</v>
       </c>
       <c r="D9">
-        <v>2.404707749076128</v>
+        <v>4.955884773544341</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.14294432725051</v>
+        <v>16.67557962912735</v>
       </c>
       <c r="G9">
-        <v>2.145478774737466</v>
+        <v>20.21008761461999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.492723801930031</v>
       </c>
       <c r="I9">
-        <v>25.3465153690759</v>
+        <v>3.836226842908829</v>
       </c>
       <c r="J9">
-        <v>5.968165824192202</v>
+        <v>7.47761749724322</v>
       </c>
       <c r="K9">
-        <v>14.23257945079007</v>
+        <v>11.0440689099234</v>
       </c>
       <c r="L9">
-        <v>7.206730453920191</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>12.06600254665866</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>16.62820963609139</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>32.01558355148966</v>
+      </c>
+      <c r="P9">
+        <v>11.48239598861978</v>
+      </c>
+      <c r="Q9">
+        <v>12.29079114873938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.08485063337436</v>
+        <v>18.98217087457287</v>
       </c>
       <c r="C10">
-        <v>9.300605244256856</v>
+        <v>14.63485330358042</v>
       </c>
       <c r="D10">
-        <v>2.507060565975971</v>
+        <v>5.314810930139512</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>38.12472092162991</v>
+        <v>17.58119537627898</v>
       </c>
       <c r="G10">
-        <v>2.132976462326577</v>
+        <v>21.47132253091235</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.820643070800178</v>
       </c>
       <c r="I10">
-        <v>25.63816847944797</v>
+        <v>4.04617538010324</v>
       </c>
       <c r="J10">
-        <v>5.912827331303382</v>
+        <v>7.54103515322032</v>
       </c>
       <c r="K10">
-        <v>15.23852271847264</v>
+        <v>10.92819548869955</v>
       </c>
       <c r="L10">
-        <v>7.330161363918637</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>12.54912058641711</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>16.34352722701479</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.86888008796107</v>
+      </c>
+      <c r="P10">
+        <v>11.36639675946923</v>
+      </c>
+      <c r="Q10">
+        <v>12.65547469699281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.6426304463146</v>
+        <v>20.52527365536924</v>
       </c>
       <c r="C11">
-        <v>9.658318233692645</v>
+        <v>15.68424239262975</v>
       </c>
       <c r="D11">
-        <v>2.553250045885276</v>
+        <v>5.578848243372316</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>38.59489152155215</v>
+        <v>17.45738447834063</v>
       </c>
       <c r="G11">
-        <v>2.127388490742782</v>
+        <v>21.08336127918541</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.230523606339149</v>
       </c>
       <c r="I11">
-        <v>25.7890032954707</v>
+        <v>4.119649593600464</v>
       </c>
       <c r="J11">
-        <v>5.888385698225437</v>
+        <v>7.397578750685983</v>
       </c>
       <c r="K11">
-        <v>15.68559903406652</v>
+        <v>10.43191558124229</v>
       </c>
       <c r="L11">
-        <v>7.389305022721182</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>12.7705235995317</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>16.21865192971902</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27.16702042788442</v>
+      </c>
+      <c r="P11">
+        <v>11.61873679646155</v>
+      </c>
+      <c r="Q11">
+        <v>12.39119091538927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.85145872787587</v>
+        <v>21.53636253530548</v>
       </c>
       <c r="C12">
-        <v>9.791519094723805</v>
+        <v>16.35355032182847</v>
       </c>
       <c r="D12">
-        <v>2.570681645796148</v>
+        <v>5.722359056939483</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>38.77638616832247</v>
+        <v>17.18494435459277</v>
       </c>
       <c r="G12">
-        <v>2.125285126598739</v>
+        <v>20.53607168427663</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.27008161740029</v>
       </c>
       <c r="I12">
-        <v>25.84885650446273</v>
+        <v>4.142225712382116</v>
       </c>
       <c r="J12">
-        <v>5.87923182176306</v>
+        <v>7.266541570391559</v>
       </c>
       <c r="K12">
-        <v>15.85331734131188</v>
+        <v>10.05680561018426</v>
       </c>
       <c r="L12">
-        <v>7.412135113579872</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>12.85455375346915</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>16.17204936246575</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.18191509918034</v>
+      </c>
+      <c r="P12">
+        <v>11.89471482421187</v>
+      </c>
+      <c r="Q12">
+        <v>12.10459176721891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.80659093886577</v>
+        <v>22.21417291952968</v>
       </c>
       <c r="C13">
-        <v>9.762931179349662</v>
+        <v>16.81554871104047</v>
       </c>
       <c r="D13">
-        <v>2.566930151145232</v>
+        <v>5.790815798605645</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>38.73714347768968</v>
+        <v>16.74406306040659</v>
       </c>
       <c r="G13">
-        <v>2.125737586900891</v>
+        <v>19.76313378139433</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.506384063733808</v>
       </c>
       <c r="I13">
-        <v>25.83584238268067</v>
+        <v>4.129062532962413</v>
       </c>
       <c r="J13">
-        <v>5.88119881262511</v>
+        <v>7.126739749445234</v>
       </c>
       <c r="K13">
-        <v>15.81726725502287</v>
+        <v>9.730853986020549</v>
       </c>
       <c r="L13">
-        <v>7.407198903505774</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>12.83644856271695</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>16.18205524189519</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.23204531533197</v>
+      </c>
+      <c r="P13">
+        <v>12.19523135684811</v>
+      </c>
+      <c r="Q13">
+        <v>11.75484036048638</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.65985908017746</v>
+        <v>22.54364495731167</v>
       </c>
       <c r="C14">
-        <v>9.669321586636435</v>
+        <v>17.05645205837131</v>
       </c>
       <c r="D14">
-        <v>2.554685370317185</v>
+        <v>5.806476263578767</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>38.60975364217313</v>
+        <v>16.34893752347709</v>
       </c>
       <c r="G14">
-        <v>2.127215201310297</v>
+        <v>19.10035838758349</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.448256481098221</v>
       </c>
       <c r="I14">
-        <v>25.79387191367109</v>
+        <v>4.104830585937896</v>
       </c>
       <c r="J14">
-        <v>5.88763058789269</v>
+        <v>7.022951647268518</v>
       </c>
       <c r="K14">
-        <v>15.69942927206137</v>
+        <v>9.523938750130831</v>
       </c>
       <c r="L14">
-        <v>7.391174557400365</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>12.77743324266507</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>16.21480405469961</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.09384060525314</v>
+      </c>
+      <c r="P14">
+        <v>12.41722795675235</v>
+      </c>
+      <c r="Q14">
+        <v>11.47492194013733</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.56966868639218</v>
+        <v>22.55009393459252</v>
       </c>
       <c r="C15">
-        <v>9.611691115637587</v>
+        <v>17.08007248089793</v>
       </c>
       <c r="D15">
-        <v>2.54717721767657</v>
+        <v>5.795838149533491</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>38.53217512953591</v>
+        <v>16.2091749944215</v>
       </c>
       <c r="G15">
-        <v>2.128121883894139</v>
+        <v>18.87605870562002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.689597994786814</v>
       </c>
       <c r="I15">
-        <v>25.76852374253337</v>
+        <v>4.091223379273257</v>
       </c>
       <c r="J15">
-        <v>5.891583360821163</v>
+        <v>6.994359265980613</v>
       </c>
       <c r="K15">
-        <v>15.62704283322832</v>
+        <v>9.480545279817566</v>
       </c>
       <c r="L15">
-        <v>7.381415758281292</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>12.74130813746104</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>16.23495349917744</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>10.09242978028334</v>
+      </c>
+      <c r="P15">
+        <v>12.47197431359236</v>
+      </c>
+      <c r="Q15">
+        <v>11.38843865957799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.04806689875721</v>
+        <v>21.84467880760772</v>
       </c>
       <c r="C16">
-        <v>9.276908225493694</v>
+        <v>16.64279985477886</v>
       </c>
       <c r="D16">
-        <v>2.504033946329777</v>
+        <v>5.641299626609189</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>38.09447352901775</v>
+        <v>15.87189009546121</v>
       </c>
       <c r="G16">
-        <v>2.133343514531666</v>
+        <v>18.41577025265384</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.471002916575591</v>
       </c>
       <c r="I16">
-        <v>25.62868702476443</v>
+        <v>4.006158283347673</v>
       </c>
       <c r="J16">
-        <v>5.914439075395812</v>
+        <v>6.987602411085746</v>
       </c>
       <c r="K16">
-        <v>15.20908717537995</v>
+        <v>9.590292851826081</v>
       </c>
       <c r="L16">
-        <v>7.326356695786604</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.53468020342253</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>16.35178283021303</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>10.05790254748723</v>
+      </c>
+      <c r="P16">
+        <v>12.43541677978381</v>
+      </c>
+      <c r="Q16">
+        <v>11.2768334825119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.72388623183456</v>
+        <v>21.10476394022864</v>
       </c>
       <c r="C17">
-        <v>9.067436062832041</v>
+        <v>16.16807682451044</v>
       </c>
       <c r="D17">
-        <v>2.477466951275396</v>
+        <v>5.511880589358765</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.83203509326214</v>
+        <v>15.83122446295297</v>
       </c>
       <c r="G17">
-        <v>2.136571165658307</v>
+        <v>18.43083412384369</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.709153933993867</v>
       </c>
       <c r="I17">
-        <v>25.54764026561439</v>
+        <v>3.95325813997669</v>
       </c>
       <c r="J17">
-        <v>5.928645306477937</v>
+        <v>7.039040534753561</v>
       </c>
       <c r="K17">
-        <v>14.9499333724337</v>
+        <v>9.78296135225728</v>
       </c>
       <c r="L17">
-        <v>7.293348752356208</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.40830426256086</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>16.42465190339771</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.28425898786405</v>
+      </c>
+      <c r="P17">
+        <v>12.29156346120179</v>
+      </c>
+      <c r="Q17">
+        <v>11.34524577207899</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.53590768542192</v>
+        <v>20.2679477357416</v>
       </c>
       <c r="C18">
-        <v>8.94542753111776</v>
+        <v>15.59269509566804</v>
       </c>
       <c r="D18">
-        <v>2.462151597693978</v>
+        <v>5.387507883691383</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.68330061511652</v>
+        <v>16.05529272419023</v>
       </c>
       <c r="G18">
-        <v>2.138437084580337</v>
+        <v>18.88490204061789</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.459351635529546</v>
       </c>
       <c r="I18">
-        <v>25.50272609082101</v>
+        <v>3.92306189535973</v>
       </c>
       <c r="J18">
-        <v>5.936885495694475</v>
+        <v>7.148355871660747</v>
       </c>
       <c r="K18">
-        <v>14.79988596177136</v>
+        <v>10.07942680490873</v>
       </c>
       <c r="L18">
-        <v>7.274645098472646</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>12.33577189991243</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>16.46699851151851</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.92727727337659</v>
+      </c>
+      <c r="P18">
+        <v>12.05078519242071</v>
+      </c>
+      <c r="Q18">
+        <v>11.58386079518207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.47200311736197</v>
+        <v>19.40082574132619</v>
       </c>
       <c r="C19">
-        <v>8.903853536703805</v>
+        <v>15.02939271767046</v>
       </c>
       <c r="D19">
-        <v>2.456960333990033</v>
+        <v>5.284048827170348</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.63331991214591</v>
+        <v>16.43733732119991</v>
       </c>
       <c r="G19">
-        <v>2.139070524360982</v>
+        <v>19.59041770292653</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.214957398652933</v>
       </c>
       <c r="I19">
-        <v>25.48780747775945</v>
+        <v>3.922645380958422</v>
       </c>
       <c r="J19">
-        <v>5.939687464690473</v>
+        <v>7.28381275117126</v>
       </c>
       <c r="K19">
-        <v>14.74891500130044</v>
+        <v>10.41919248764671</v>
       </c>
       <c r="L19">
-        <v>7.268360646547449</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>12.31124190785673</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>16.48141039506605</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.22093994632823</v>
+      </c>
+      <c r="P19">
+        <v>11.7803121301149</v>
+      </c>
+      <c r="Q19">
+        <v>11.91091434336862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.75855354528944</v>
+        <v>18.56515086720809</v>
       </c>
       <c r="C20">
-        <v>9.089892164438451</v>
+        <v>14.46312953070751</v>
       </c>
       <c r="D20">
-        <v>2.480298696445309</v>
+        <v>5.234286783154015</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.85974260976136</v>
+        <v>17.28910918595879</v>
       </c>
       <c r="G20">
-        <v>2.136226608947039</v>
+        <v>21.04263835975252</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.73153373819417</v>
       </c>
       <c r="I20">
-        <v>25.55609081619199</v>
+        <v>3.996829036385559</v>
       </c>
       <c r="J20">
-        <v>5.927125898812418</v>
+        <v>7.505298907076341</v>
       </c>
       <c r="K20">
-        <v>14.97762364208802</v>
+        <v>10.91060375600141</v>
       </c>
       <c r="L20">
-        <v>7.296833334226865</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>12.42174142465727</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>16.41684979451385</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.35270203066385</v>
+      </c>
+      <c r="P20">
+        <v>11.40452250695127</v>
+      </c>
+      <c r="Q20">
+        <v>12.51336034062651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.70302307303133</v>
+        <v>19.51693775612838</v>
       </c>
       <c r="C21">
-        <v>9.696877696628958</v>
+        <v>15.02862195625997</v>
       </c>
       <c r="D21">
-        <v>2.558283607203048</v>
+        <v>5.47790515351934</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>38.64707692317683</v>
+        <v>18.07899705189958</v>
       </c>
       <c r="G21">
-        <v>2.126780859543801</v>
+        <v>22.17950641632676</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.069166136744096</v>
       </c>
       <c r="I21">
-        <v>25.80612441821359</v>
+        <v>4.158822697485303</v>
       </c>
       <c r="J21">
-        <v>5.885738691178136</v>
+        <v>7.592546295000703</v>
       </c>
       <c r="K21">
-        <v>15.73408442314438</v>
+        <v>10.91623349080015</v>
       </c>
       <c r="L21">
-        <v>7.395869499832928</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>12.7947626493024</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>16.20516616939204</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36.06488097976073</v>
+      </c>
+      <c r="P21">
+        <v>11.27134064128858</v>
+      </c>
+      <c r="Q21">
+        <v>12.88242156427654</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.30634064570952</v>
+        <v>20.17647123962373</v>
       </c>
       <c r="C22">
-        <v>10.08045538059813</v>
+        <v>15.39816501908574</v>
       </c>
       <c r="D22">
-        <v>2.608904043513926</v>
+        <v>5.633208312101877</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>39.18179605949568</v>
+        <v>18.57903802199879</v>
       </c>
       <c r="G22">
-        <v>2.120680574271415</v>
+        <v>22.891772088347</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.256707341633319</v>
       </c>
       <c r="I22">
-        <v>25.98553946587875</v>
+        <v>4.259191534771547</v>
       </c>
       <c r="J22">
-        <v>5.859280346380953</v>
+        <v>7.649862846029698</v>
       </c>
       <c r="K22">
-        <v>16.21925306978082</v>
+        <v>10.91865764151015</v>
       </c>
       <c r="L22">
-        <v>7.463124926792608</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>13.03964314284818</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>16.07082330947626</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.32860600543666</v>
+      </c>
+      <c r="P22">
+        <v>11.19781097756335</v>
+      </c>
+      <c r="Q22">
+        <v>13.11889410808136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98563024704563</v>
+        <v>19.84024663743988</v>
       </c>
       <c r="C23">
-        <v>9.876910004577077</v>
+        <v>15.17894290916433</v>
       </c>
       <c r="D23">
-        <v>2.581920153402443</v>
+        <v>5.546941049721192</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>38.8945399421086</v>
+        <v>18.33197935861359</v>
       </c>
       <c r="G23">
-        <v>2.123930295062632</v>
+        <v>22.54722762971802</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.15701889534056</v>
       </c>
       <c r="I23">
-        <v>25.88827612583277</v>
+        <v>4.203655631791622</v>
       </c>
       <c r="J23">
-        <v>5.873348882852012</v>
+        <v>7.625387455456389</v>
       </c>
       <c r="K23">
-        <v>15.96116882142169</v>
+        <v>10.93358502210986</v>
       </c>
       <c r="L23">
-        <v>7.426996837534006</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>12.90885912095148</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>16.14215072419418</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.65902755194831</v>
+      </c>
+      <c r="P23">
+        <v>11.23399752580836</v>
+      </c>
+      <c r="Q23">
+        <v>13.00820898606877</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.74288543966948</v>
+        <v>18.48404492521499</v>
       </c>
       <c r="C24">
-        <v>9.079744687865649</v>
+        <v>14.36005308149843</v>
       </c>
       <c r="D24">
-        <v>2.479018593656432</v>
+        <v>5.214217412390592</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.84720936549695</v>
+        <v>17.35404186453307</v>
       </c>
       <c r="G24">
-        <v>2.136382350835603</v>
+        <v>21.16450923397255</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.773585953988962</v>
       </c>
       <c r="I24">
-        <v>25.55226509664809</v>
+        <v>3.993012015619724</v>
       </c>
       <c r="J24">
-        <v>5.927812595872091</v>
+        <v>7.529036661095656</v>
       </c>
       <c r="K24">
-        <v>14.96510815652209</v>
+        <v>10.97527112472496</v>
       </c>
       <c r="L24">
-        <v>7.295257104491407</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>12.41566609754071</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>16.42037571772414</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>34.0200377577596</v>
+      </c>
+      <c r="P24">
+        <v>11.37908528135115</v>
+      </c>
+      <c r="Q24">
+        <v>12.57029432479758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.34486397016123</v>
+        <v>16.88817105161999</v>
       </c>
       <c r="C25">
-        <v>8.161309570412129</v>
+        <v>13.42284146897392</v>
       </c>
       <c r="D25">
-        <v>2.36673680254291</v>
+        <v>4.829355901273571</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>36.80186915873928</v>
+        <v>16.27962351171089</v>
       </c>
       <c r="G25">
-        <v>2.150181047972941</v>
+        <v>19.63014936063438</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.346873170374168</v>
       </c>
       <c r="I25">
-        <v>25.25440343486584</v>
+        <v>3.758361789986236</v>
       </c>
       <c r="J25">
-        <v>5.989217082775761</v>
+        <v>7.439233068799843</v>
       </c>
       <c r="K25">
-        <v>13.85336258850222</v>
+        <v>11.04528790282891</v>
       </c>
       <c r="L25">
-        <v>7.163911054656926</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>11.88986609756088</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>16.73704154622029</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>30.95184668993593</v>
+      </c>
+      <c r="P25">
+        <v>11.5420742584455</v>
+      </c>
+      <c r="Q25">
+        <v>12.11402811032767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_59/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.6368631114667</v>
+        <v>15.42301157445872</v>
       </c>
       <c r="C2">
-        <v>12.62360553725167</v>
+        <v>12.82057566032272</v>
       </c>
       <c r="D2">
-        <v>4.512890448173946</v>
+        <v>4.588524663303712</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15.53136511441507</v>
+        <v>15.34077155269134</v>
       </c>
       <c r="G2">
-        <v>18.56997476652882</v>
+        <v>17.57532186717074</v>
       </c>
       <c r="H2">
-        <v>2.020740064897745</v>
+        <v>2.014681285833856</v>
       </c>
       <c r="I2">
-        <v>3.575042536934064</v>
+        <v>3.531903334635548</v>
       </c>
       <c r="J2">
-        <v>7.400853007317338</v>
+        <v>8.0940235859574</v>
       </c>
       <c r="K2">
-        <v>11.15683952569722</v>
+        <v>11.02577884679138</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.5669148780673</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.808655884747624</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.50087399396055</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>11.66189675185569</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.83515343886785</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.49128009000761</v>
+      </c>
+      <c r="R2">
+        <v>11.7112765223155</v>
+      </c>
+      <c r="S2">
+        <v>11.72324430016022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.69708026849806</v>
+        <v>14.5284842633943</v>
       </c>
       <c r="C3">
-        <v>12.09086536530427</v>
+        <v>12.20600329781946</v>
       </c>
       <c r="D3">
-        <v>4.291262588803714</v>
+        <v>4.353071522457212</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>14.99065942777531</v>
+        <v>14.84916117448152</v>
       </c>
       <c r="G3">
-        <v>17.78297651749824</v>
+        <v>16.82962320251725</v>
       </c>
       <c r="H3">
-        <v>1.791232396990335</v>
+        <v>1.787098965055824</v>
       </c>
       <c r="I3">
-        <v>3.447895170601004</v>
+        <v>3.41860443848591</v>
       </c>
       <c r="J3">
-        <v>7.372485429148666</v>
+        <v>8.058490632538742</v>
       </c>
       <c r="K3">
-        <v>11.21978427525832</v>
+        <v>11.11085556026503</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.72838047713932</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.761371484126228</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.7188904184211</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>11.75001765306217</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.63254218483431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.71221641908421</v>
+      </c>
+      <c r="R3">
+        <v>11.7831557626451</v>
+      </c>
+      <c r="S3">
+        <v>11.55471382744954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.0843753797015</v>
+        <v>13.94519350310249</v>
       </c>
       <c r="C4">
-        <v>11.75237494565041</v>
+        <v>11.81520899298511</v>
       </c>
       <c r="D4">
-        <v>4.149010442726429</v>
+        <v>4.201921735197844</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.65706379044672</v>
+        <v>14.54546698511491</v>
       </c>
       <c r="G4">
-        <v>17.29269498721321</v>
+        <v>16.36514170086723</v>
       </c>
       <c r="H4">
-        <v>1.64607930137731</v>
+        <v>1.643152567226566</v>
       </c>
       <c r="I4">
-        <v>3.367425466530371</v>
+        <v>3.347004169550868</v>
       </c>
       <c r="J4">
-        <v>7.358057582565839</v>
+        <v>8.037700467965067</v>
       </c>
       <c r="K4">
-        <v>11.26273827420887</v>
+        <v>11.16601978437957</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.8307824736129</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.757648030596786</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.56533979009974</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>11.8058605141694</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.51246918265909</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.56054210744486</v>
+      </c>
+      <c r="R4">
+        <v>11.82932133313632</v>
+      </c>
+      <c r="S4">
+        <v>11.45465094442114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.82124598778109</v>
+        <v>13.6944521333289</v>
       </c>
       <c r="C5">
-        <v>11.61890401225041</v>
+        <v>11.66026632700465</v>
       </c>
       <c r="D5">
-        <v>4.090803886507621</v>
+        <v>4.139997862409976</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.51485955375598</v>
+        <v>14.41534755248185</v>
       </c>
       <c r="G5">
-        <v>17.08009951454704</v>
+        <v>16.16277539239612</v>
       </c>
       <c r="H5">
-        <v>1.58579021607158</v>
+        <v>1.583362901626807</v>
       </c>
       <c r="I5">
-        <v>3.334250637719035</v>
+        <v>3.317771262507551</v>
       </c>
       <c r="J5">
-        <v>7.351208045532716</v>
+        <v>8.027847543679691</v>
       </c>
       <c r="K5">
-        <v>11.27704476643496</v>
+        <v>11.18508829189341</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.86958382392604</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.760142434389006</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.08028074219119</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>11.82953105710491</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.460122929458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>25.07627379061406</v>
+      </c>
+      <c r="R5">
+        <v>11.84916670146694</v>
+      </c>
+      <c r="S5">
+        <v>11.41024013941377</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.77149039607467</v>
+        <v>13.64676458187038</v>
       </c>
       <c r="C6">
-        <v>11.60543916421079</v>
+        <v>11.64360197825449</v>
       </c>
       <c r="D6">
-        <v>4.082617504762323</v>
+        <v>4.131196909181901</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>14.48381308877591</v>
+        <v>14.38630529685904</v>
       </c>
       <c r="G6">
-        <v>17.03084446943077</v>
+        <v>16.11479751386204</v>
       </c>
       <c r="H6">
-        <v>1.575650814941069</v>
+        <v>1.573308099582666</v>
       </c>
       <c r="I6">
-        <v>3.329153342882087</v>
+        <v>3.313656278828694</v>
       </c>
       <c r="J6">
-        <v>7.348026480243806</v>
+        <v>8.024224428585915</v>
       </c>
       <c r="K6">
-        <v>11.27430238487876</v>
+        <v>11.18326656914987</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.8714998388921</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.758048758128743</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.99873656708104</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>11.83408099473894</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.44595233756686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.99486463420438</v>
+      </c>
+      <c r="R6">
+        <v>11.85314385885367</v>
+      </c>
+      <c r="S6">
+        <v>11.39740920030511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.06609581145492</v>
+        <v>13.92188212482526</v>
       </c>
       <c r="C7">
-        <v>11.77447976228884</v>
+        <v>11.83058860644459</v>
       </c>
       <c r="D7">
-        <v>4.152451225209804</v>
+        <v>4.208349352212395</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>14.63509205935254</v>
+        <v>14.51004183542095</v>
       </c>
       <c r="G7">
-        <v>17.25248000545876</v>
+        <v>16.42945981232225</v>
       </c>
       <c r="H7">
-        <v>1.64510377704245</v>
+        <v>1.642119946865359</v>
       </c>
       <c r="I7">
-        <v>3.367956917156636</v>
+        <v>3.347935831532317</v>
       </c>
       <c r="J7">
-        <v>7.352269324390535</v>
+        <v>7.992338723915192</v>
       </c>
       <c r="K7">
-        <v>11.24876504448756</v>
+        <v>11.14807255593133</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.81511652845815</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.746439281500313</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.55858466497098</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>11.80785761541804</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.49669088087829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.55369320743634</v>
+      </c>
+      <c r="R7">
+        <v>11.83214106000155</v>
+      </c>
+      <c r="S7">
+        <v>11.42903132260236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.30208516656726</v>
+        <v>15.08753177207309</v>
       </c>
       <c r="C8">
-        <v>12.47258205684875</v>
+        <v>12.61946107572074</v>
       </c>
       <c r="D8">
-        <v>4.443060017241271</v>
+        <v>4.523513638000568</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15.31995524835665</v>
+        <v>15.10279699247554</v>
       </c>
       <c r="G8">
-        <v>18.2533489376926</v>
+        <v>17.60411292923624</v>
       </c>
       <c r="H8">
-        <v>1.94226251750846</v>
+        <v>1.936657516862186</v>
       </c>
       <c r="I8">
-        <v>3.532734493862479</v>
+        <v>3.493840911526072</v>
       </c>
       <c r="J8">
-        <v>7.382966130977528</v>
+        <v>7.944767487129238</v>
       </c>
       <c r="K8">
-        <v>11.15884436158836</v>
+        <v>11.02166041461866</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.5953683424957</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.762311505279001</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.89846038699995</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>11.69440189902614</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.74489425790711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.88953151827694</v>
+      </c>
+      <c r="R8">
+        <v>11.74100558568742</v>
+      </c>
+      <c r="S8">
+        <v>11.61228659226807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.4654658637091</v>
+        <v>17.14469986961675</v>
       </c>
       <c r="C9">
-        <v>13.70759097803289</v>
+        <v>14.04070448732993</v>
       </c>
       <c r="D9">
-        <v>4.955884773544341</v>
+        <v>5.069925488659878</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>16.67557962912735</v>
+        <v>16.32805460695443</v>
       </c>
       <c r="G9">
-        <v>20.21008761461999</v>
+        <v>19.51561343838131</v>
       </c>
       <c r="H9">
-        <v>2.492723801930031</v>
+        <v>2.482385222588505</v>
       </c>
       <c r="I9">
-        <v>3.836226842908829</v>
+        <v>3.763609309511869</v>
       </c>
       <c r="J9">
-        <v>7.47761749724322</v>
+        <v>8.011521145821652</v>
       </c>
       <c r="K9">
-        <v>11.0440689099234</v>
+        <v>10.83893540492447</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.22375401146905</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>6.020126481254022</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>32.01558355148966</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>11.48239598861978</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.29079114873938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.99964684154165</v>
+      </c>
+      <c r="R9">
+        <v>11.57231643983002</v>
+      </c>
+      <c r="S9">
+        <v>12.06124664123689</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.98217087457287</v>
+        <v>18.57108142575626</v>
       </c>
       <c r="C10">
-        <v>14.63485330358042</v>
+        <v>15.0532323232475</v>
       </c>
       <c r="D10">
-        <v>5.314810930139512</v>
+        <v>5.464608789686539</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.58119537627898</v>
+        <v>17.07756221420515</v>
       </c>
       <c r="G10">
-        <v>21.47132253091235</v>
+        <v>21.25276260587358</v>
       </c>
       <c r="H10">
-        <v>2.820643070800178</v>
+        <v>2.80671285340265</v>
       </c>
       <c r="I10">
-        <v>4.04617538010324</v>
+        <v>3.949093295556169</v>
       </c>
       <c r="J10">
-        <v>7.54103515322032</v>
+        <v>7.832147204274016</v>
       </c>
       <c r="K10">
-        <v>10.92819548869955</v>
+        <v>10.64746980474304</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.920415253945029</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>6.245768002039615</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.86888008796107</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>11.36639675946923</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.65547469699281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.84763588164144</v>
+      </c>
+      <c r="R10">
+        <v>11.49812074546104</v>
+      </c>
+      <c r="S10">
+        <v>12.30308394028377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.52527365536924</v>
+        <v>20.06483036174872</v>
       </c>
       <c r="C11">
-        <v>15.68424239262975</v>
+        <v>16.04036332929451</v>
       </c>
       <c r="D11">
-        <v>5.578848243372316</v>
+        <v>5.760629437828386</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.45738447834063</v>
+        <v>16.8138468181346</v>
       </c>
       <c r="G11">
-        <v>21.08336127918541</v>
+        <v>22.0012319424887</v>
       </c>
       <c r="H11">
-        <v>3.230523606339149</v>
+        <v>3.218863558510848</v>
       </c>
       <c r="I11">
-        <v>4.119649593600464</v>
+        <v>4.012340621513907</v>
       </c>
       <c r="J11">
-        <v>7.397578750685983</v>
+        <v>7.279418124335038</v>
       </c>
       <c r="K11">
-        <v>10.43191558124229</v>
+        <v>10.14276744189924</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.545895427986579</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.93776099952212</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.16702042788442</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.61873679646155</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.39119091538927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>27.14369083567981</v>
+      </c>
+      <c r="R11">
+        <v>11.80299883301526</v>
+      </c>
+      <c r="S11">
+        <v>11.93267724128757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.53636253530548</v>
+        <v>21.06657380267154</v>
       </c>
       <c r="C12">
-        <v>16.35355032182847</v>
+        <v>16.65647976293419</v>
       </c>
       <c r="D12">
-        <v>5.722359056939483</v>
+        <v>5.915328545456349</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.18494435459277</v>
+        <v>16.49692121285733</v>
       </c>
       <c r="G12">
-        <v>20.53607168427663</v>
+        <v>22.01805388235883</v>
       </c>
       <c r="H12">
-        <v>4.27008161740029</v>
+        <v>4.262064761523042</v>
       </c>
       <c r="I12">
-        <v>4.142225712382116</v>
+        <v>4.030508480425628</v>
       </c>
       <c r="J12">
-        <v>7.266541570391559</v>
+        <v>7.001046639121264</v>
       </c>
       <c r="K12">
-        <v>10.05680561018426</v>
+        <v>9.795679192875761</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.328315993383676</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.651625405309644</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.18191509918034</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.89471482421187</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.10459176721891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>21.15707304097725</v>
+      </c>
+      <c r="R12">
+        <v>12.10881733583318</v>
+      </c>
+      <c r="S12">
+        <v>11.61597666425489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.21417291952968</v>
+        <v>21.77545142461417</v>
       </c>
       <c r="C13">
-        <v>16.81554871104047</v>
+        <v>17.08807932918636</v>
       </c>
       <c r="D13">
-        <v>5.790815798605645</v>
+        <v>5.9731323221727</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.74406306040659</v>
+        <v>16.11267139033555</v>
       </c>
       <c r="G13">
-        <v>19.76313378139433</v>
+        <v>21.1935212148005</v>
       </c>
       <c r="H13">
-        <v>5.506384063733808</v>
+        <v>5.501006023866045</v>
       </c>
       <c r="I13">
-        <v>4.129062532962413</v>
+        <v>4.019247284852366</v>
       </c>
       <c r="J13">
-        <v>7.126739749445234</v>
+        <v>6.951538139630771</v>
       </c>
       <c r="K13">
-        <v>9.730853986020549</v>
+        <v>9.535271725454383</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.19495250588624</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.356303323309581</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.23204531533197</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.19523135684811</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.75484036048638</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.20506761279388</v>
+      </c>
+      <c r="R13">
+        <v>12.41510085859336</v>
+      </c>
+      <c r="S13">
+        <v>11.31742745610221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54364495731167</v>
+        <v>22.14508824866311</v>
       </c>
       <c r="C14">
-        <v>17.05645205837131</v>
+        <v>17.31800767548429</v>
       </c>
       <c r="D14">
-        <v>5.806476263578767</v>
+        <v>5.971413391101993</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.34893752347709</v>
+        <v>15.80243640931394</v>
       </c>
       <c r="G14">
-        <v>19.10035838758349</v>
+        <v>20.22259114383955</v>
       </c>
       <c r="H14">
-        <v>6.448256481098221</v>
+        <v>6.451223854609746</v>
       </c>
       <c r="I14">
-        <v>4.104830585937896</v>
+        <v>3.999427687580215</v>
       </c>
       <c r="J14">
-        <v>7.022951647268518</v>
+        <v>7.009028649132737</v>
       </c>
       <c r="K14">
-        <v>9.523938750130831</v>
+        <v>9.387934705451464</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.132675647866789</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.144140492128487</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.09384060525314</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>12.41722795675235</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.47492194013733</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.06353014023854</v>
+      </c>
+      <c r="R14">
+        <v>12.62831934663137</v>
+      </c>
+      <c r="S14">
+        <v>11.1091486728063</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.55009393459252</v>
+        <v>22.16942202554848</v>
       </c>
       <c r="C15">
-        <v>17.08007248089793</v>
+        <v>17.34348973943349</v>
       </c>
       <c r="D15">
-        <v>5.795838149533491</v>
+        <v>5.95222153033157</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.2091749944215</v>
+        <v>15.70294124093098</v>
       </c>
       <c r="G15">
-        <v>18.87605870562002</v>
+        <v>19.8058152703777</v>
       </c>
       <c r="H15">
-        <v>6.689597994786814</v>
+        <v>6.692468996510048</v>
       </c>
       <c r="I15">
-        <v>4.091223379273257</v>
+        <v>3.98871560639527</v>
       </c>
       <c r="J15">
-        <v>6.994359265980613</v>
+        <v>7.063074952774969</v>
       </c>
       <c r="K15">
-        <v>9.480545279817566</v>
+        <v>9.364928894219608</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.129168558798343</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.087840802115513</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.09242978028334</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>12.47197431359236</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.38843865957799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.06110989694078</v>
+      </c>
+      <c r="R15">
+        <v>12.67595341112357</v>
+      </c>
+      <c r="S15">
+        <v>11.05549157324071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.84467880760772</v>
+        <v>21.53355963839453</v>
       </c>
       <c r="C16">
-        <v>16.64279985477886</v>
+        <v>16.93817413978151</v>
       </c>
       <c r="D16">
-        <v>5.641299626609189</v>
+        <v>5.761244599514423</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.87189009546121</v>
+        <v>15.5295756953571</v>
       </c>
       <c r="G16">
-        <v>18.41577025265384</v>
+        <v>18.37408090055072</v>
       </c>
       <c r="H16">
-        <v>6.471002916575591</v>
+        <v>6.473789385064284</v>
       </c>
       <c r="I16">
-        <v>4.006158283347673</v>
+        <v>3.917427863820651</v>
       </c>
       <c r="J16">
-        <v>6.987602411085746</v>
+        <v>7.426766285613241</v>
       </c>
       <c r="K16">
-        <v>9.590292851826081</v>
+        <v>9.521249436274317</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.262646463085144</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.086405008521508</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.05790254748723</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>12.43541677978381</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.2768334825119</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.03018517304216</v>
+      </c>
+      <c r="R16">
+        <v>12.59933605344933</v>
+      </c>
+      <c r="S16">
+        <v>11.07110375403649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.10476394022864</v>
+        <v>20.8189282558003</v>
       </c>
       <c r="C17">
-        <v>16.16807682451044</v>
+        <v>16.48280983057194</v>
       </c>
       <c r="D17">
-        <v>5.511880589358765</v>
+        <v>5.617384403172418</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.83122446295297</v>
+        <v>15.55005622734982</v>
       </c>
       <c r="G17">
-        <v>18.43083412384369</v>
+        <v>17.94358812768997</v>
       </c>
       <c r="H17">
-        <v>5.709153933993867</v>
+        <v>5.712085827252827</v>
       </c>
       <c r="I17">
-        <v>3.95325813997669</v>
+        <v>3.872336132834507</v>
       </c>
       <c r="J17">
-        <v>7.039040534753561</v>
+        <v>7.635783315426983</v>
       </c>
       <c r="K17">
-        <v>9.78296135225728</v>
+        <v>9.715828394341802</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.404752417707506</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.191252965120515</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.28425898786405</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>12.29156346120179</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.34524577207899</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.26133038942437</v>
+      </c>
+      <c r="R17">
+        <v>12.43510938623651</v>
+      </c>
+      <c r="S17">
+        <v>11.18400275991394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.2679477357416</v>
+        <v>19.98026092495578</v>
       </c>
       <c r="C18">
-        <v>15.59269509566804</v>
+        <v>15.93096590071771</v>
       </c>
       <c r="D18">
-        <v>5.387507883691383</v>
+        <v>5.49057619867622</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>16.05529272419023</v>
+        <v>15.77919685123699</v>
       </c>
       <c r="G18">
-        <v>18.88490204061789</v>
+        <v>18.17322573081652</v>
       </c>
       <c r="H18">
-        <v>4.459351635529546</v>
+        <v>4.454985297432299</v>
       </c>
       <c r="I18">
-        <v>3.92306189535973</v>
+        <v>3.845018786580827</v>
       </c>
       <c r="J18">
-        <v>7.148355871660747</v>
+        <v>7.798267540231689</v>
       </c>
       <c r="K18">
-        <v>10.07942680490873</v>
+        <v>9.984636851311034</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.584924993609114</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.408282812941816</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.92727727337659</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>12.05078519242071</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.58386079518207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.90816791546935</v>
+      </c>
+      <c r="R18">
+        <v>12.18243817982653</v>
+      </c>
+      <c r="S18">
+        <v>11.42217702235472</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.40082574132619</v>
+        <v>19.0932967700589</v>
       </c>
       <c r="C19">
-        <v>15.02939271767046</v>
+        <v>15.3984407416785</v>
       </c>
       <c r="D19">
-        <v>5.284048827170348</v>
+        <v>5.392123525439417</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>16.43733732119991</v>
+        <v>16.13226027377443</v>
       </c>
       <c r="G19">
-        <v>19.59041770292653</v>
+        <v>18.76890455071027</v>
       </c>
       <c r="H19">
-        <v>3.214957398652933</v>
+        <v>3.207890622866228</v>
       </c>
       <c r="I19">
-        <v>3.922645380958422</v>
+        <v>3.845265428761399</v>
       </c>
       <c r="J19">
-        <v>7.28381275117126</v>
+        <v>7.93039945636978</v>
       </c>
       <c r="K19">
-        <v>10.41919248764671</v>
+        <v>10.27898801841597</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.774037283003308</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.680441781715588</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.22093994632823</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.7803121301149</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.91091434336862</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>23.20334638400387</v>
+      </c>
+      <c r="R19">
+        <v>11.90333097175136</v>
+      </c>
+      <c r="S19">
+        <v>11.72210864914248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.56515086720809</v>
+        <v>18.19169775448256</v>
       </c>
       <c r="C20">
-        <v>14.46312953070751</v>
+        <v>14.88461142416926</v>
       </c>
       <c r="D20">
-        <v>5.234286783154015</v>
+        <v>5.366037169263645</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.28910918595879</v>
+        <v>16.86847226475546</v>
       </c>
       <c r="G20">
-        <v>21.04263835975252</v>
+        <v>20.39058399531073</v>
       </c>
       <c r="H20">
-        <v>2.73153373819417</v>
+        <v>2.718752489072054</v>
       </c>
       <c r="I20">
-        <v>3.996829036385559</v>
+        <v>3.91032072043508</v>
       </c>
       <c r="J20">
-        <v>7.505298907076341</v>
+        <v>7.995412300559048</v>
       </c>
       <c r="K20">
-        <v>10.91060375600141</v>
+        <v>10.66928848405139</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.981074614817647</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>6.154321671416955</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.35270203066385</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>11.40452250695127</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.51336034062651</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.33316888613741</v>
+      </c>
+      <c r="R20">
+        <v>11.5225139883256</v>
+      </c>
+      <c r="S20">
+        <v>12.2275047432438</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.51693775612838</v>
+        <v>18.99804173956756</v>
       </c>
       <c r="C21">
-        <v>15.02862195625997</v>
+        <v>15.40305262532265</v>
       </c>
       <c r="D21">
-        <v>5.47790515351934</v>
+        <v>5.683301574609561</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>18.07899705189958</v>
+        <v>17.31482231889863</v>
       </c>
       <c r="G21">
-        <v>22.17950641632676</v>
+        <v>23.45773346610107</v>
       </c>
       <c r="H21">
-        <v>3.069166136744096</v>
+        <v>3.052454778952157</v>
       </c>
       <c r="I21">
-        <v>4.158822697485303</v>
+        <v>4.046462779890772</v>
       </c>
       <c r="J21">
-        <v>7.592546295000703</v>
+        <v>7.24126316715958</v>
       </c>
       <c r="K21">
-        <v>10.91623349080015</v>
+        <v>10.51773805862466</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.752568260634488</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.342196202954073</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>36.06488097976073</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>11.27134064128858</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.88242156427654</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>36.03953526087062</v>
+      </c>
+      <c r="R21">
+        <v>11.43806434324779</v>
+      </c>
+      <c r="S21">
+        <v>12.31952409453044</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.17647123962373</v>
+        <v>19.56327100720005</v>
       </c>
       <c r="C22">
-        <v>15.39816501908574</v>
+        <v>15.73281446545198</v>
       </c>
       <c r="D22">
-        <v>5.633208312101877</v>
+        <v>5.887703673180027</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.57903802199879</v>
+        <v>17.58254659230819</v>
       </c>
       <c r="G22">
-        <v>22.891772088347</v>
+        <v>25.49750499084294</v>
       </c>
       <c r="H22">
-        <v>3.256707341633319</v>
+        <v>3.237489559069425</v>
       </c>
       <c r="I22">
-        <v>4.259191534771547</v>
+        <v>4.129337796290256</v>
       </c>
       <c r="J22">
-        <v>7.649862846029698</v>
+        <v>6.77268832750176</v>
       </c>
       <c r="K22">
-        <v>10.91865764151015</v>
+        <v>10.4095586417819</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.602142679840178</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.466052739807086</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.32860600543666</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>11.19781097756335</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.11889410808136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.29953017672231</v>
+      </c>
+      <c r="R22">
+        <v>11.40029120613485</v>
+      </c>
+      <c r="S22">
+        <v>12.36453533503924</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.84024663743988</v>
+        <v>19.28714288092936</v>
       </c>
       <c r="C23">
-        <v>15.17894290916433</v>
+        <v>15.54952458608913</v>
       </c>
       <c r="D23">
-        <v>5.546941049721192</v>
+        <v>5.769024572607577</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.33197935861359</v>
+        <v>17.48916761409105</v>
       </c>
       <c r="G23">
-        <v>22.54722762971802</v>
+        <v>24.23000566149043</v>
       </c>
       <c r="H23">
-        <v>3.15701889534056</v>
+        <v>3.139252678625021</v>
       </c>
       <c r="I23">
-        <v>4.203655631791622</v>
+        <v>4.082743113405879</v>
       </c>
       <c r="J23">
-        <v>7.625387455456389</v>
+        <v>7.097460423683037</v>
       </c>
       <c r="K23">
-        <v>10.93358502210986</v>
+        <v>10.49433235117476</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.697324073953965</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.426497625880606</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.65902755194831</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>11.23399752580836</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.00820898606877</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.63211538565821</v>
+      </c>
+      <c r="R23">
+        <v>11.41393380371123</v>
+      </c>
+      <c r="S23">
+        <v>12.38017640110541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.48404492521499</v>
+        <v>18.10956620036696</v>
       </c>
       <c r="C24">
-        <v>14.36005308149843</v>
+        <v>14.78280175697269</v>
       </c>
       <c r="D24">
-        <v>5.214217412390592</v>
+        <v>5.345952602646083</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.35404186453307</v>
+        <v>16.93258912450553</v>
       </c>
       <c r="G24">
-        <v>21.16450923397255</v>
+        <v>20.48978363841337</v>
       </c>
       <c r="H24">
-        <v>2.773585953988962</v>
+        <v>2.760752054203877</v>
       </c>
       <c r="I24">
-        <v>3.993012015619724</v>
+        <v>3.904747762380838</v>
       </c>
       <c r="J24">
-        <v>7.529036661095656</v>
+        <v>8.023233735913031</v>
       </c>
       <c r="K24">
-        <v>10.97527112472496</v>
+        <v>10.72815744410934</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.02038448235827</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>6.206234175772769</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>34.0200377577596</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>11.37908528135115</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.57029432479758</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>34.00044524157539</v>
+      </c>
+      <c r="R24">
+        <v>11.49423434276612</v>
+      </c>
+      <c r="S24">
+        <v>12.283061053653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.88817105161999</v>
+        <v>16.60098181309744</v>
       </c>
       <c r="C25">
-        <v>13.42284146897392</v>
+        <v>13.71874456321999</v>
       </c>
       <c r="D25">
-        <v>4.829355901273571</v>
+        <v>4.930961219068357</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.27962351171089</v>
+        <v>15.98486857352533</v>
       </c>
       <c r="G25">
-        <v>19.63014936063438</v>
+        <v>18.81394333484964</v>
       </c>
       <c r="H25">
-        <v>2.346873170374168</v>
+        <v>2.337892775991031</v>
       </c>
       <c r="I25">
-        <v>3.758361789986236</v>
+        <v>3.696694237894054</v>
       </c>
       <c r="J25">
-        <v>7.439233068799843</v>
+        <v>8.037911959704088</v>
       </c>
       <c r="K25">
-        <v>11.04528790282891</v>
+        <v>10.86762612890051</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.30903507815755</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.91402056320951</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.95184668993593</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>11.5420742584455</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.11402811032767</v>
+        <v>30.93791175787168</v>
+      </c>
+      <c r="R25">
+        <v>11.61923207381981</v>
+      </c>
+      <c r="S25">
+        <v>11.92524547726149</v>
       </c>
     </row>
   </sheetData>
